--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_22_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_22_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1051728.494617464</v>
+        <v>-1053332.912543796</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8983154.091635678</v>
+        <v>8983154.091635674</v>
       </c>
     </row>
     <row r="8">
@@ -1373,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>41.83276530441594</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>254.1420543748741</v>
       </c>
       <c r="F11" t="n">
         <v>279.0877300443238</v>
@@ -1385,7 +1385,7 @@
         <v>284.7244505358285</v>
       </c>
       <c r="H11" t="n">
-        <v>57.08122495790754</v>
+        <v>183.1136930274268</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>17.65528330212901</v>
       </c>
       <c r="T11" t="n">
-        <v>83.09443458014347</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>123.3341395078953</v>
       </c>
       <c r="V11" t="n">
         <v>199.9639427727473</v>
       </c>
       <c r="W11" t="n">
-        <v>221.4526530200254</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>258.449622958666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>89.72555986437825</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>44.92018329092808</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>19.65674986725109</v>
       </c>
       <c r="E12" t="n">
-        <v>29.85676475801337</v>
+        <v>29.85676475801328</v>
       </c>
       <c r="F12" t="n">
-        <v>17.2808966959963</v>
+        <v>17.28089669599622</v>
       </c>
       <c r="G12" t="n">
-        <v>8.062435227577449</v>
+        <v>8.062435227577364</v>
       </c>
       <c r="H12" t="n">
-        <v>21.01084125531939</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>143.9556929504599</v>
+        <v>16.16737725307229</v>
       </c>
       <c r="T12" t="n">
-        <v>66.35951750204931</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U12" t="n">
-        <v>98.05485807843951</v>
+        <v>98.05485807843942</v>
       </c>
       <c r="V12" t="n">
-        <v>105.0122714520377</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>123.906667463532</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>77.98466950608982</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.89438007991679</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.04366448454972</v>
+        <v>52.04366448454964</v>
       </c>
       <c r="C13" t="n">
-        <v>39.45850540124026</v>
+        <v>39.45850540124017</v>
       </c>
       <c r="D13" t="n">
-        <v>20.82715732082478</v>
+        <v>20.8271573208247</v>
       </c>
       <c r="E13" t="n">
-        <v>18.6456469491816</v>
+        <v>18.64564694918151</v>
       </c>
       <c r="F13" t="n">
-        <v>42.96847027864967</v>
+        <v>17.63273232554359</v>
       </c>
       <c r="G13" t="n">
-        <v>38.951178592194</v>
+        <v>38.95117859219392</v>
       </c>
       <c r="H13" t="n">
-        <v>23.31201683403489</v>
+        <v>151.1003325314225</v>
       </c>
       <c r="I13" t="n">
-        <v>117.8149057650245</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>74.41831073015237</v>
+        <v>74.4183107301523</v>
       </c>
       <c r="T13" t="n">
-        <v>94.81001934569143</v>
+        <v>94.81001934569134</v>
       </c>
       <c r="U13" t="n">
         <v>158.4624508371645</v>
       </c>
       <c r="V13" t="n">
-        <v>124.3493276264404</v>
+        <v>124.3493276264403</v>
       </c>
       <c r="W13" t="n">
         <v>158.7346826392034</v>
       </c>
       <c r="X13" t="n">
-        <v>97.92133969164958</v>
+        <v>97.92133969164949</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.79633765470722</v>
+        <v>106.1586656754513</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>254.9455259660929</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>237.4845760736199</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>254.1420543748741</v>
       </c>
       <c r="F14" t="n">
-        <v>279.0877300443238</v>
+        <v>94.107828960559</v>
       </c>
       <c r="G14" t="n">
         <v>284.7244505358285</v>
       </c>
       <c r="H14" t="n">
-        <v>183.1136930274268</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17.65528330212909</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>83.09443458014347</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>123.3341395078954</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>191.3916748518686</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>221.4526530200254</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>258.4496229586659</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.74486795247977</v>
+        <v>38.74486795247968</v>
       </c>
       <c r="C15" t="n">
-        <v>44.92018329092816</v>
+        <v>44.92018329092808</v>
       </c>
       <c r="D15" t="n">
-        <v>19.65674986725118</v>
+        <v>19.65674986725109</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>80.83745666991176</v>
       </c>
       <c r="F15" t="n">
-        <v>38.29173795131599</v>
+        <v>17.28089669599622</v>
       </c>
       <c r="G15" t="n">
-        <v>135.850750924965</v>
+        <v>8.062435227577364</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>143.9556929504599</v>
       </c>
       <c r="T15" t="n">
-        <v>194.1478331994369</v>
+        <v>66.35951750204923</v>
       </c>
       <c r="U15" t="n">
-        <v>98.05485807843951</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V15" t="n">
-        <v>105.0122714520377</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>123.9066674635319</v>
       </c>
       <c r="X15" t="n">
-        <v>77.9846695060899</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>77.89438007991679</v>
+        <v>77.8943800799167</v>
       </c>
     </row>
     <row r="16">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.04366448454972</v>
+        <v>52.04366448454964</v>
       </c>
       <c r="C16" t="n">
-        <v>39.45850540124026</v>
+        <v>39.45850540124017</v>
       </c>
       <c r="D16" t="n">
-        <v>20.82715732082478</v>
+        <v>20.8271573208247</v>
       </c>
       <c r="E16" t="n">
-        <v>18.6456469491816</v>
+        <v>18.64564694918151</v>
       </c>
       <c r="F16" t="n">
-        <v>17.63273232554367</v>
+        <v>17.63273232554359</v>
       </c>
       <c r="G16" t="n">
-        <v>38.951178592194</v>
+        <v>38.95117859219392</v>
       </c>
       <c r="H16" t="n">
-        <v>23.31201683403489</v>
+        <v>23.3120168340348</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>74.41831073015238</v>
+        <v>74.4183107301523</v>
       </c>
       <c r="T16" t="n">
-        <v>94.81001934569143</v>
+        <v>110.1723473664355</v>
       </c>
       <c r="U16" t="n">
         <v>158.4624508371645</v>
       </c>
       <c r="V16" t="n">
-        <v>139.7116556471832</v>
+        <v>124.3493276264403</v>
       </c>
       <c r="W16" t="n">
         <v>158.7346826392034</v>
       </c>
       <c r="X16" t="n">
-        <v>97.92133969164958</v>
+        <v>97.92133969164949</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>139.8053726064066</v>
+        <v>139.8053726064065</v>
       </c>
       <c r="C17" t="n">
-        <v>122.3444227139336</v>
+        <v>122.3444227139335</v>
       </c>
       <c r="D17" t="n">
-        <v>111.754572563609</v>
+        <v>111.7545725636089</v>
       </c>
       <c r="E17" t="n">
-        <v>139.0019010151878</v>
+        <v>139.0019010151877</v>
       </c>
       <c r="F17" t="n">
-        <v>163.9475766846375</v>
+        <v>163.9475766846374</v>
       </c>
       <c r="G17" t="n">
         <v>169.5842971761421</v>
       </c>
       <c r="H17" t="n">
-        <v>67.9735396677405</v>
+        <v>67.9735396677404</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.193986148209023</v>
+        <v>8.19398614820895</v>
       </c>
       <c r="V17" t="n">
-        <v>84.82378941306095</v>
+        <v>84.82378941306087</v>
       </c>
       <c r="W17" t="n">
-        <v>106.3124996603391</v>
+        <v>106.312499660339</v>
       </c>
       <c r="X17" t="n">
-        <v>126.8026316213951</v>
+        <v>126.802631621395</v>
       </c>
       <c r="Y17" t="n">
-        <v>143.3094695989796</v>
+        <v>143.3094695989795</v>
       </c>
     </row>
     <row r="18">
@@ -1935,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>111.7227677431697</v>
+        <v>40.37039328192504</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I18" t="n">
-        <v>38.00095315743243</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>143.9556929504599</v>
       </c>
       <c r="T18" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>14.01773384254228</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>117.8149057650245</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>94.57637228406475</v>
+        <v>286.2507665345522</v>
       </c>
       <c r="V19" t="n">
-        <v>9.209174266754047</v>
+        <v>9.209174266753962</v>
       </c>
       <c r="W19" t="n">
-        <v>43.59452927951705</v>
+        <v>43.59452927951696</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>139.8053726064066</v>
+        <v>139.8053726064065</v>
       </c>
       <c r="C20" t="n">
-        <v>122.3444227139336</v>
+        <v>122.3444227139335</v>
       </c>
       <c r="D20" t="n">
-        <v>111.754572563609</v>
+        <v>111.7545725636089</v>
       </c>
       <c r="E20" t="n">
-        <v>139.0019010151878</v>
+        <v>139.0019010151877</v>
       </c>
       <c r="F20" t="n">
-        <v>163.9475766846375</v>
+        <v>163.9475766846374</v>
       </c>
       <c r="G20" t="n">
-        <v>169.5842971761421</v>
+        <v>169.584297176142</v>
       </c>
       <c r="H20" t="n">
-        <v>67.97353966774048</v>
+        <v>67.9735396677404</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.193986148209023</v>
+        <v>8.193986148208937</v>
       </c>
       <c r="V20" t="n">
-        <v>84.82378941306095</v>
+        <v>84.82378941306133</v>
       </c>
       <c r="W20" t="n">
-        <v>106.3124996603396</v>
+        <v>106.312499660339</v>
       </c>
       <c r="X20" t="n">
-        <v>126.8026316213951</v>
+        <v>126.802631621395</v>
       </c>
       <c r="Y20" t="n">
-        <v>143.3094695989796</v>
+        <v>143.3094695989795</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>107.2834642986358</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>90.52433082973775</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>38.00095315743243</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.475382974551607</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,10 +2214,10 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2239,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>149.3806632251423</v>
       </c>
       <c r="H22" t="n">
         <v>151.1003325314225</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>222.598335043079</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>43.32229747747818</v>
+        <v>286.2507665345522</v>
       </c>
       <c r="V22" t="n">
-        <v>9.209174266754047</v>
+        <v>9.209174266753962</v>
       </c>
       <c r="W22" t="n">
-        <v>43.59452927951705</v>
+        <v>43.59452927951696</v>
       </c>
       <c r="X22" t="n">
-        <v>197.6486577281381</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>139.8053726064066</v>
+        <v>139.8053726064065</v>
       </c>
       <c r="C23" t="n">
-        <v>122.3444227139336</v>
+        <v>122.3444227139335</v>
       </c>
       <c r="D23" t="n">
-        <v>111.754572563609</v>
+        <v>111.7545725636089</v>
       </c>
       <c r="E23" t="n">
-        <v>139.0019010151878</v>
+        <v>139.0019010151877</v>
       </c>
       <c r="F23" t="n">
-        <v>163.9475766846375</v>
+        <v>163.9475766846374</v>
       </c>
       <c r="G23" t="n">
-        <v>169.5842971761421</v>
+        <v>169.584297176142</v>
       </c>
       <c r="H23" t="n">
-        <v>67.97353966774048</v>
+        <v>67.9735396677404</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.193986148209023</v>
+        <v>8.193986148208937</v>
       </c>
       <c r="V23" t="n">
-        <v>84.82378941306095</v>
+        <v>84.82378941306087</v>
       </c>
       <c r="W23" t="n">
-        <v>106.3124996603391</v>
+        <v>106.312499660339</v>
       </c>
       <c r="X23" t="n">
-        <v>126.8026316213951</v>
+        <v>126.802631621395</v>
       </c>
       <c r="Y23" t="n">
-        <v>143.3094695989796</v>
+        <v>143.3094695989795</v>
       </c>
     </row>
     <row r="24">
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>73.09465083854282</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.475382974551607</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>143.9556929504599</v>
@@ -2454,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>162.7452507880763</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>116.9797931800875</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7394942895816</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>121.0220718256556</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>91.93996189149887</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>222.598335043079</v>
       </c>
       <c r="U25" t="n">
-        <v>43.32229747747818</v>
+        <v>43.3222974774781</v>
       </c>
       <c r="V25" t="n">
-        <v>9.209174266754047</v>
+        <v>9.209174266753962</v>
       </c>
       <c r="W25" t="n">
-        <v>43.59452927951705</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30344563983029</v>
+        <v>30.30344563983028</v>
       </c>
       <c r="T26" t="n">
-        <v>95.74259691784466</v>
+        <v>95.74259691784465</v>
       </c>
       <c r="U26" t="n">
         <v>135.9823018455966</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.69182682225092</v>
+        <v>64.6918268222509</v>
       </c>
       <c r="C28" t="n">
-        <v>52.10666773894145</v>
+        <v>52.10666773894144</v>
       </c>
       <c r="D28" t="n">
-        <v>33.47531965852598</v>
+        <v>33.47531965852596</v>
       </c>
       <c r="E28" t="n">
-        <v>31.29380928688279</v>
+        <v>31.29380928688278</v>
       </c>
       <c r="F28" t="n">
-        <v>30.28089466324487</v>
+        <v>30.28089466324485</v>
       </c>
       <c r="G28" t="n">
-        <v>51.5993409298952</v>
+        <v>51.59934092989518</v>
       </c>
       <c r="H28" t="n">
-        <v>35.96017917173608</v>
+        <v>35.96017917173607</v>
       </c>
       <c r="I28" t="n">
-        <v>2.674752405338161</v>
+        <v>2.674752405338147</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.881918465969207</v>
+        <v>5.881918465969193</v>
       </c>
       <c r="S28" t="n">
-        <v>87.06647306785358</v>
+        <v>87.06647306785356</v>
       </c>
       <c r="T28" t="n">
         <v>107.4581816833926</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30344563983027</v>
+        <v>30.30344563983028</v>
       </c>
       <c r="T29" t="n">
-        <v>95.74259691784464</v>
+        <v>95.74259691784465</v>
       </c>
       <c r="U29" t="n">
         <v>135.9823018455966</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.69182682225089</v>
+        <v>64.6918268222509</v>
       </c>
       <c r="C31" t="n">
-        <v>52.10666773894143</v>
+        <v>52.10666773894144</v>
       </c>
       <c r="D31" t="n">
-        <v>33.47531965852595</v>
+        <v>33.47531965852596</v>
       </c>
       <c r="E31" t="n">
-        <v>31.29380928688276</v>
+        <v>31.29380928688278</v>
       </c>
       <c r="F31" t="n">
-        <v>30.28089466324484</v>
+        <v>30.28089466324485</v>
       </c>
       <c r="G31" t="n">
-        <v>51.59934092989517</v>
+        <v>51.59934092989518</v>
       </c>
       <c r="H31" t="n">
-        <v>35.96017917173605</v>
+        <v>35.96017917173607</v>
       </c>
       <c r="I31" t="n">
-        <v>2.674752405338133</v>
+        <v>2.674752405338147</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.881918465969179</v>
+        <v>5.881918465969193</v>
       </c>
       <c r="S31" t="n">
-        <v>87.06647306785355</v>
+        <v>87.06647306785356</v>
       </c>
       <c r="T31" t="n">
         <v>107.4581816833926</v>
@@ -3013,7 +3013,7 @@
         <v>171.3828449769046</v>
       </c>
       <c r="X31" t="n">
-        <v>110.5695020293507</v>
+        <v>110.5695020293508</v>
       </c>
       <c r="Y31" t="n">
         <v>103.4444999924084</v>
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>267.5936883037941</v>
+        <v>267.5936883037942</v>
       </c>
       <c r="C32" t="n">
-        <v>250.1327384113211</v>
+        <v>250.1327384113212</v>
       </c>
       <c r="D32" t="n">
-        <v>239.5428882609965</v>
+        <v>239.5428882609966</v>
       </c>
       <c r="E32" t="n">
-        <v>266.7902167125753</v>
+        <v>266.7902167125754</v>
       </c>
       <c r="F32" t="n">
         <v>291.735892382025</v>
       </c>
       <c r="G32" t="n">
-        <v>297.3726128735296</v>
+        <v>297.3726128735297</v>
       </c>
       <c r="H32" t="n">
         <v>195.761855365128</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>30.30344563983024</v>
+        <v>30.30344563983029</v>
       </c>
       <c r="T32" t="n">
-        <v>95.74259691784462</v>
+        <v>95.74259691784466</v>
       </c>
       <c r="U32" t="n">
         <v>135.9823018455966</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.69182682225087</v>
+        <v>64.69182682225092</v>
       </c>
       <c r="C34" t="n">
-        <v>52.10666773894141</v>
+        <v>52.10666773894145</v>
       </c>
       <c r="D34" t="n">
-        <v>33.47531965852593</v>
+        <v>33.47531965852598</v>
       </c>
       <c r="E34" t="n">
-        <v>31.29380928688275</v>
+        <v>31.29380928688279</v>
       </c>
       <c r="F34" t="n">
-        <v>30.28089466324482</v>
+        <v>30.28089466324487</v>
       </c>
       <c r="G34" t="n">
-        <v>51.59934092989516</v>
+        <v>51.5993409298952</v>
       </c>
       <c r="H34" t="n">
-        <v>35.96017917173604</v>
+        <v>35.96017917173608</v>
       </c>
       <c r="I34" t="n">
-        <v>2.674752405338118</v>
+        <v>2.674752405338161</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.881918465969164</v>
+        <v>5.881918465969207</v>
       </c>
       <c r="S34" t="n">
-        <v>87.06647306785354</v>
+        <v>87.06647306785358</v>
       </c>
       <c r="T34" t="n">
         <v>107.4581816833926</v>
@@ -3250,7 +3250,7 @@
         <v>171.3828449769046</v>
       </c>
       <c r="X34" t="n">
-        <v>110.5695020293507</v>
+        <v>110.5695020293508</v>
       </c>
       <c r="Y34" t="n">
         <v>103.4444999924084</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>162.77635361113</v>
+        <v>162.7763536111304</v>
       </c>
       <c r="C35" t="n">
-        <v>145.315403718657</v>
+        <v>145.3154037186574</v>
       </c>
       <c r="D35" t="n">
-        <v>134.7255535683324</v>
+        <v>134.7255535683328</v>
       </c>
       <c r="E35" t="n">
-        <v>161.9728820199112</v>
+        <v>161.9728820199116</v>
       </c>
       <c r="F35" t="n">
-        <v>186.9185576893609</v>
+        <v>186.9185576893613</v>
       </c>
       <c r="G35" t="n">
-        <v>192.5552781808655</v>
+        <v>192.5552781808659</v>
       </c>
       <c r="H35" t="n">
-        <v>90.94452067246388</v>
+        <v>90.94452067246425</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>31.16496715293242</v>
+        <v>31.1649671529328</v>
       </c>
       <c r="V35" t="n">
-        <v>107.7947704177843</v>
+        <v>107.7947704177847</v>
       </c>
       <c r="W35" t="n">
-        <v>129.2834806650625</v>
+        <v>129.2834806650628</v>
       </c>
       <c r="X35" t="n">
-        <v>149.7736126261185</v>
+        <v>149.7736126261188</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.280450603703</v>
+        <v>166.2804506037034</v>
       </c>
     </row>
     <row r="36">
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>77.75191738544207</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.475382974551607</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>143.9556929504599</v>
       </c>
       <c r="T36" t="n">
-        <v>194.1478331994369</v>
+        <v>149.8421146344151</v>
       </c>
       <c r="U36" t="n">
         <v>225.8431737758271</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>12.84309909707508</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>31.73749510856942</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>9.513000052983257</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>151.1003325314225</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>202.20662642754</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>222.598335043079</v>
+        <v>2.640846990728814</v>
       </c>
       <c r="U37" t="n">
-        <v>66.29327848220157</v>
+        <v>286.2507665345522</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>32.18015527147782</v>
       </c>
       <c r="W37" t="n">
-        <v>66.56551028424045</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>5.752167336686597</v>
+        <v>47.74011320537106</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>162.77635361113</v>
+        <v>162.7763536111303</v>
       </c>
       <c r="C38" t="n">
-        <v>145.315403718657</v>
+        <v>145.3154037186573</v>
       </c>
       <c r="D38" t="n">
-        <v>134.7255535683324</v>
+        <v>134.7255535683327</v>
       </c>
       <c r="E38" t="n">
-        <v>161.9728820199112</v>
+        <v>161.9728820199115</v>
       </c>
       <c r="F38" t="n">
-        <v>186.9185576893609</v>
+        <v>186.9185576893612</v>
       </c>
       <c r="G38" t="n">
-        <v>192.5552781808655</v>
+        <v>192.5552781808659</v>
       </c>
       <c r="H38" t="n">
-        <v>90.94452067246388</v>
+        <v>90.94452067246419</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>31.16496715293243</v>
+        <v>31.16496715293275</v>
       </c>
       <c r="V38" t="n">
-        <v>107.7947704177843</v>
+        <v>107.7947704177847</v>
       </c>
       <c r="W38" t="n">
-        <v>129.2834806650625</v>
+        <v>129.2834806650628</v>
       </c>
       <c r="X38" t="n">
-        <v>149.7736126261185</v>
+        <v>149.7736126261188</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.280450603703</v>
+        <v>166.2804506037033</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3591,13 +3591,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>49.76539719697701</v>
       </c>
       <c r="G39" t="n">
         <v>135.850750924965</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>143.9556929504599</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U39" t="n">
-        <v>5.885685723476525</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V39" t="n">
-        <v>71.43169361496206</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>151.1003325314225</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>99.69659599296001</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>222.598335043079</v>
+        <v>2.640846990728758</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2507665345522</v>
+        <v>86.7870645608885</v>
       </c>
       <c r="V40" t="n">
-        <v>32.18015527147745</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>66.56551028424045</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>5.752167336686597</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>162.77635361113</v>
+        <v>162.7763536111303</v>
       </c>
       <c r="C41" t="n">
-        <v>145.315403718657</v>
+        <v>145.3154037186573</v>
       </c>
       <c r="D41" t="n">
-        <v>134.7255535683324</v>
+        <v>134.7255535683327</v>
       </c>
       <c r="E41" t="n">
-        <v>161.9728820199112</v>
+        <v>161.9728820199115</v>
       </c>
       <c r="F41" t="n">
-        <v>186.9185576893609</v>
+        <v>186.9185576893612</v>
       </c>
       <c r="G41" t="n">
-        <v>192.5552781808655</v>
+        <v>192.5552781808658</v>
       </c>
       <c r="H41" t="n">
-        <v>90.94452067246388</v>
+        <v>90.94452067246419</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>31.16496715293242</v>
+        <v>31.16496715293274</v>
       </c>
       <c r="V41" t="n">
-        <v>107.7947704177843</v>
+        <v>107.7947704177847</v>
       </c>
       <c r="W41" t="n">
-        <v>129.2834806650625</v>
+        <v>129.2834806650628</v>
       </c>
       <c r="X41" t="n">
-        <v>149.7736126261185</v>
+        <v>149.7736126261188</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.280450603703</v>
+        <v>166.2804506037033</v>
       </c>
     </row>
     <row r="42">
@@ -3819,10 +3819,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3831,13 +3831,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>38.00095315743243</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>7.475382974551607</v>
       </c>
       <c r="S42" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>194.1478331994369</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8431737758271</v>
+        <v>5.885685723476838</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>84.95181743923915</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>9.306702679678374</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.640846990728445</v>
+        <v>96.53282664087644</v>
       </c>
       <c r="U43" t="n">
-        <v>185.3025238935162</v>
+        <v>66.29327848220188</v>
       </c>
       <c r="V43" t="n">
-        <v>32.18015527147745</v>
+        <v>32.18015527147776</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>5.752167336686597</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>162.77635361113</v>
+        <v>162.7763536111303</v>
       </c>
       <c r="C44" t="n">
-        <v>145.315403718657</v>
+        <v>145.3154037186573</v>
       </c>
       <c r="D44" t="n">
-        <v>134.7255535683324</v>
+        <v>134.7255535683327</v>
       </c>
       <c r="E44" t="n">
-        <v>161.9728820199113</v>
+        <v>161.9728820199115</v>
       </c>
       <c r="F44" t="n">
-        <v>186.9185576893609</v>
+        <v>186.9185576893612</v>
       </c>
       <c r="G44" t="n">
-        <v>192.5552781808655</v>
+        <v>192.5552781808658</v>
       </c>
       <c r="H44" t="n">
-        <v>90.94452067246391</v>
+        <v>90.94452067246419</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>31.16496715293245</v>
+        <v>31.16496715293274</v>
       </c>
       <c r="V44" t="n">
-        <v>107.7947704177844</v>
+        <v>107.7947704177847</v>
       </c>
       <c r="W44" t="n">
-        <v>129.2834806650625</v>
+        <v>129.2834806650628</v>
       </c>
       <c r="X44" t="n">
-        <v>149.7736126261185</v>
+        <v>149.7736126261188</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.2804506037031</v>
+        <v>166.2804506037033</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U45" t="n">
-        <v>179.9265237870657</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>12.84309909707503</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>110.3347263000584</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>168.5537515138884</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4153,7 +4153,7 @@
         <v>151.1003325314225</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>117.8149057650245</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.640846990728473</v>
+        <v>2.640846990728758</v>
       </c>
       <c r="U46" t="n">
-        <v>66.2932784822016</v>
+        <v>66.29327848220188</v>
       </c>
       <c r="V46" t="n">
-        <v>32.18015527147747</v>
+        <v>32.18015527147776</v>
       </c>
       <c r="W46" t="n">
-        <v>66.56551028424047</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>5.752167336686909</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>19.52233858513723</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>655.6922475826539</v>
+        <v>1081.962235207714</v>
       </c>
       <c r="C11" t="n">
-        <v>655.6922475826539</v>
+        <v>1081.962235207714</v>
       </c>
       <c r="D11" t="n">
-        <v>655.6922475826539</v>
+        <v>1039.706916718405</v>
       </c>
       <c r="E11" t="n">
-        <v>655.6922475826539</v>
+        <v>782.9977708851992</v>
       </c>
       <c r="F11" t="n">
-        <v>373.7854495580843</v>
+        <v>501.0909728606297</v>
       </c>
       <c r="G11" t="n">
-        <v>86.18499447138963</v>
+        <v>213.4905177739344</v>
       </c>
       <c r="H11" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I11" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J11" t="n">
-        <v>83.71911784006784</v>
+        <v>83.71911784006772</v>
       </c>
       <c r="K11" t="n">
-        <v>217.1760266634142</v>
+        <v>217.1760266634139</v>
       </c>
       <c r="L11" t="n">
-        <v>419.6428849838414</v>
+        <v>419.642884983841</v>
       </c>
       <c r="M11" t="n">
-        <v>676.5957134965342</v>
+        <v>676.5957134965336</v>
       </c>
       <c r="N11" t="n">
-        <v>942.3201157893069</v>
+        <v>942.320115789306</v>
       </c>
       <c r="O11" t="n">
-        <v>1179.900872569999</v>
+        <v>1179.900872569998</v>
       </c>
       <c r="P11" t="n">
-        <v>1348.169550998292</v>
+        <v>1348.169550998291</v>
       </c>
       <c r="Q11" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="R11" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S11" t="n">
-        <v>1426.359574180212</v>
+        <v>1408.525954683111</v>
       </c>
       <c r="T11" t="n">
-        <v>1342.425801877037</v>
+        <v>1408.525954683111</v>
       </c>
       <c r="U11" t="n">
-        <v>1342.425801877037</v>
+        <v>1283.946015786247</v>
       </c>
       <c r="V11" t="n">
-        <v>1140.442021298504</v>
+        <v>1081.962235207714</v>
       </c>
       <c r="W11" t="n">
-        <v>916.7524727934276</v>
+        <v>1081.962235207714</v>
       </c>
       <c r="X11" t="n">
-        <v>916.7524727934276</v>
+        <v>1081.962235207714</v>
       </c>
       <c r="Y11" t="n">
-        <v>655.6922475826539</v>
+        <v>1081.962235207714</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>428.8953758167972</v>
+        <v>248.3206206559018</v>
       </c>
       <c r="C12" t="n">
-        <v>254.4423465356702</v>
+        <v>202.9466981398129</v>
       </c>
       <c r="D12" t="n">
-        <v>105.5079368744189</v>
+        <v>183.0913952435996</v>
       </c>
       <c r="E12" t="n">
-        <v>75.34958863400135</v>
+        <v>152.9330470031822</v>
       </c>
       <c r="F12" t="n">
-        <v>57.89413742592427</v>
+        <v>135.4775957951052</v>
       </c>
       <c r="G12" t="n">
-        <v>49.75026345867433</v>
+        <v>127.3337218278553</v>
       </c>
       <c r="H12" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I12" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J12" t="n">
-        <v>42.58127776197359</v>
+        <v>42.58127776197354</v>
       </c>
       <c r="K12" t="n">
-        <v>144.7567744385589</v>
+        <v>144.7567744385588</v>
       </c>
       <c r="L12" t="n">
-        <v>328.4668801148409</v>
+        <v>328.4668801148406</v>
       </c>
       <c r="M12" t="n">
-        <v>562.2047765654395</v>
+        <v>619.3721629116128</v>
       </c>
       <c r="N12" t="n">
-        <v>816.5376645420151</v>
+        <v>873.7050508881882</v>
       </c>
       <c r="O12" t="n">
-        <v>1169.561659151618</v>
+        <v>1226.72904549779</v>
       </c>
       <c r="P12" t="n">
-        <v>1319.129346319896</v>
+        <v>1376.296732666068</v>
       </c>
       <c r="Q12" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="R12" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S12" t="n">
-        <v>1280.949783321161</v>
+        <v>1410.028890086198</v>
       </c>
       <c r="T12" t="n">
-        <v>1213.919967662526</v>
+        <v>1213.919967662525</v>
       </c>
       <c r="U12" t="n">
-        <v>1114.874656472183</v>
+        <v>1114.874656472182</v>
       </c>
       <c r="V12" t="n">
-        <v>1008.801655005478</v>
+        <v>879.7225482404392</v>
       </c>
       <c r="W12" t="n">
-        <v>883.643405042314</v>
+        <v>625.4851915122376</v>
       </c>
       <c r="X12" t="n">
-        <v>675.7919048367812</v>
+        <v>546.7127980717429</v>
       </c>
       <c r="Y12" t="n">
-        <v>597.1107128368652</v>
+        <v>338.952499306789</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>333.5553542524424</v>
+        <v>318.0378512011864</v>
       </c>
       <c r="C13" t="n">
-        <v>293.6982780895734</v>
+        <v>278.1807750383176</v>
       </c>
       <c r="D13" t="n">
-        <v>272.6607454422756</v>
+        <v>257.1432423910199</v>
       </c>
       <c r="E13" t="n">
-        <v>253.8267586249205</v>
+        <v>238.3092555736648</v>
       </c>
       <c r="F13" t="n">
-        <v>210.4242633939612</v>
+        <v>220.4984148407925</v>
       </c>
       <c r="G13" t="n">
-        <v>171.0796385533612</v>
+        <v>181.1537900001926</v>
       </c>
       <c r="H13" t="n">
-        <v>147.5321468018109</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I13" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J13" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="K13" t="n">
         <v>150.4262071982334</v>
       </c>
       <c r="L13" t="n">
-        <v>361.9414135537031</v>
+        <v>361.9414135537029</v>
       </c>
       <c r="M13" t="n">
-        <v>595.3436651297682</v>
+        <v>595.3436651297679</v>
       </c>
       <c r="N13" t="n">
-        <v>828.6307492648907</v>
+        <v>828.6307492648905</v>
       </c>
       <c r="O13" t="n">
-        <v>1028.092834557912</v>
+        <v>1028.092834557911</v>
       </c>
       <c r="P13" t="n">
         <v>1175.246424437234</v>
@@ -5230,19 +5230,19 @@
         <v>1022.755155195589</v>
       </c>
       <c r="U13" t="n">
-        <v>862.6920735418873</v>
+        <v>862.6920735418876</v>
       </c>
       <c r="V13" t="n">
-        <v>737.0866921010384</v>
+        <v>737.0866921010387</v>
       </c>
       <c r="W13" t="n">
-        <v>576.7486288291157</v>
+        <v>576.7486288291161</v>
       </c>
       <c r="X13" t="n">
-        <v>477.8381846961363</v>
+        <v>477.8381846961368</v>
       </c>
       <c r="Y13" t="n">
-        <v>386.1247123176441</v>
+        <v>370.6072092663881</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>782.9977708851994</v>
+        <v>907.7786156703535</v>
       </c>
       <c r="C14" t="n">
-        <v>782.9977708851994</v>
+        <v>667.8952054949798</v>
       </c>
       <c r="D14" t="n">
-        <v>782.9977708851994</v>
+        <v>667.8952054949798</v>
       </c>
       <c r="E14" t="n">
-        <v>782.9977708851994</v>
+        <v>411.1860596617735</v>
       </c>
       <c r="F14" t="n">
-        <v>501.0909728606299</v>
+        <v>316.1276465702996</v>
       </c>
       <c r="G14" t="n">
-        <v>213.4905177739344</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H14" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I14" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J14" t="n">
-        <v>83.71911784006761</v>
+        <v>83.71911784006784</v>
       </c>
       <c r="K14" t="n">
-        <v>217.1760266634142</v>
+        <v>217.176026663414</v>
       </c>
       <c r="L14" t="n">
-        <v>419.6428849838417</v>
+        <v>419.6428849838408</v>
       </c>
       <c r="M14" t="n">
-        <v>676.5957134965344</v>
+        <v>676.5957134965333</v>
       </c>
       <c r="N14" t="n">
-        <v>942.320115789307</v>
+        <v>942.3201157893059</v>
       </c>
       <c r="O14" t="n">
-        <v>1179.900872569999</v>
+        <v>1179.900872569998</v>
       </c>
       <c r="P14" t="n">
-        <v>1348.169550998292</v>
+        <v>1348.169550998291</v>
       </c>
       <c r="Q14" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="R14" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S14" t="n">
-        <v>1408.525954683112</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="T14" t="n">
-        <v>1324.592182379937</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="U14" t="n">
-        <v>1200.012243483072</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="V14" t="n">
-        <v>1006.687319390276</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="W14" t="n">
-        <v>782.9977708851994</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="X14" t="n">
-        <v>782.9977708851994</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="Y14" t="n">
-        <v>782.9977708851994</v>
+        <v>1165.299348969437</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>428.8953758167975</v>
+        <v>299.8162690517589</v>
       </c>
       <c r="C15" t="n">
-        <v>383.5214533007084</v>
+        <v>254.4423465356699</v>
       </c>
       <c r="D15" t="n">
-        <v>363.6661504044951</v>
+        <v>234.5870436394567</v>
       </c>
       <c r="E15" t="n">
-        <v>204.4286953990396</v>
+        <v>152.9330470031822</v>
       </c>
       <c r="F15" t="n">
-        <v>165.7501722158921</v>
+        <v>135.4775957951052</v>
       </c>
       <c r="G15" t="n">
-        <v>28.52719148360424</v>
+        <v>127.3337218278553</v>
       </c>
       <c r="H15" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I15" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J15" t="n">
-        <v>42.5812777619736</v>
+        <v>42.58127776197357</v>
       </c>
       <c r="K15" t="n">
-        <v>144.7567744385589</v>
+        <v>344.5030460572795</v>
       </c>
       <c r="L15" t="n">
-        <v>497.7807690481613</v>
+        <v>528.2131517335614</v>
       </c>
       <c r="M15" t="n">
-        <v>731.5186654987598</v>
+        <v>761.9510481841598</v>
       </c>
       <c r="N15" t="n">
-        <v>985.8515534753353</v>
+        <v>1016.283936160735</v>
       </c>
       <c r="O15" t="n">
-        <v>1226.729045497791</v>
+        <v>1226.72904549779</v>
       </c>
       <c r="P15" t="n">
-        <v>1376.296732666069</v>
+        <v>1376.296732666068</v>
       </c>
       <c r="Q15" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="R15" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S15" t="n">
         <v>1280.949783321161</v>
       </c>
       <c r="T15" t="n">
-        <v>1084.840860897488</v>
+        <v>1213.919967662525</v>
       </c>
       <c r="U15" t="n">
-        <v>985.7955497071448</v>
+        <v>985.795549707144</v>
       </c>
       <c r="V15" t="n">
-        <v>879.72254824044</v>
+        <v>750.6434414754012</v>
       </c>
       <c r="W15" t="n">
-        <v>625.4851915122383</v>
+        <v>625.4851915122376</v>
       </c>
       <c r="X15" t="n">
-        <v>546.7127980717435</v>
+        <v>417.6336913067048</v>
       </c>
       <c r="Y15" t="n">
-        <v>468.0316060718275</v>
+        <v>338.9524993067889</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.9587444361489</v>
+        <v>188.9587444361483</v>
       </c>
       <c r="C16" t="n">
-        <v>149.1016682732799</v>
+        <v>149.1016682732795</v>
       </c>
       <c r="D16" t="n">
-        <v>128.0641356259822</v>
+        <v>128.0641356259818</v>
       </c>
       <c r="E16" t="n">
-        <v>109.230148808627</v>
+        <v>109.2301488086268</v>
       </c>
       <c r="F16" t="n">
-        <v>91.41930807575463</v>
+        <v>91.41930807575444</v>
       </c>
       <c r="G16" t="n">
-        <v>52.07468323515463</v>
+        <v>52.07468323515452</v>
       </c>
       <c r="H16" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I16" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J16" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="K16" t="n">
         <v>150.4262071982334</v>
@@ -5464,22 +5464,22 @@
         <v>1118.522851504368</v>
       </c>
       <c r="T16" t="n">
-        <v>1022.755155195589</v>
+        <v>1007.237652144332</v>
       </c>
       <c r="U16" t="n">
-        <v>862.6920735418871</v>
+        <v>847.1745704906308</v>
       </c>
       <c r="V16" t="n">
-        <v>721.5691890497828</v>
+        <v>721.5691890497819</v>
       </c>
       <c r="W16" t="n">
-        <v>561.2311257778601</v>
+        <v>561.2311257778593</v>
       </c>
       <c r="X16" t="n">
-        <v>462.3206816448808</v>
+        <v>462.3206816448801</v>
       </c>
       <c r="Y16" t="n">
-        <v>241.5281025013506</v>
+        <v>241.52810250135</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>810.9578074646658</v>
+        <v>810.9578074646657</v>
       </c>
       <c r="C17" t="n">
-        <v>687.3775825010966</v>
+        <v>687.3775825010964</v>
       </c>
       <c r="D17" t="n">
-        <v>574.4941758711885</v>
+        <v>574.4941758711884</v>
       </c>
       <c r="E17" t="n">
         <v>434.0882152497867</v>
       </c>
       <c r="F17" t="n">
-        <v>268.4846024370215</v>
+        <v>268.4846024370217</v>
       </c>
       <c r="G17" t="n">
-        <v>97.18733256213</v>
+        <v>97.18733256212987</v>
       </c>
       <c r="H17" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="I17" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="J17" t="n">
-        <v>83.71911784006778</v>
+        <v>83.71911784006772</v>
       </c>
       <c r="K17" t="n">
         <v>217.1760266634139</v>
@@ -5522,43 +5522,43 @@
         <v>419.642884983841</v>
       </c>
       <c r="M17" t="n">
-        <v>676.5957134965338</v>
+        <v>676.5957134965336</v>
       </c>
       <c r="N17" t="n">
-        <v>942.3201157893063</v>
+        <v>942.3201157893059</v>
       </c>
       <c r="O17" t="n">
         <v>1179.900872569998</v>
       </c>
       <c r="P17" t="n">
-        <v>1348.169550998292</v>
+        <v>1348.169550998291</v>
       </c>
       <c r="Q17" t="n">
         <v>1426.359574180211</v>
       </c>
       <c r="R17" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S17" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="T17" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="U17" t="n">
-        <v>1418.082820495152</v>
+        <v>1418.082820495151</v>
       </c>
       <c r="V17" t="n">
-        <v>1332.402225128424</v>
+        <v>1332.402225128423</v>
       </c>
       <c r="W17" t="n">
         <v>1225.015861835152</v>
       </c>
       <c r="X17" t="n">
-        <v>1096.932395550915</v>
+        <v>1096.932395550914</v>
       </c>
       <c r="Y17" t="n">
-        <v>952.1753555519452</v>
+        <v>952.1753555519449</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>662.3881671492179</v>
+        <v>650.7367908079366</v>
       </c>
       <c r="C18" t="n">
-        <v>487.9351378680909</v>
+        <v>476.2837615268096</v>
       </c>
       <c r="D18" t="n">
-        <v>339.0007282068397</v>
+        <v>327.3493518655583</v>
       </c>
       <c r="E18" t="n">
-        <v>179.7632732013842</v>
+        <v>168.1118968601028</v>
       </c>
       <c r="F18" t="n">
-        <v>179.7632732013842</v>
+        <v>168.1118968601028</v>
       </c>
       <c r="G18" t="n">
-        <v>66.91199265272792</v>
+        <v>127.3337218278553</v>
       </c>
       <c r="H18" t="n">
-        <v>66.91199265272792</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="I18" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="J18" t="n">
-        <v>42.58127776197356</v>
+        <v>42.58127776197354</v>
       </c>
       <c r="K18" t="n">
         <v>144.7567744385588</v>
       </c>
       <c r="L18" t="n">
-        <v>328.4668801148407</v>
+        <v>497.7807690481609</v>
       </c>
       <c r="M18" t="n">
-        <v>562.204776565439</v>
+        <v>761.9510481841598</v>
       </c>
       <c r="N18" t="n">
-        <v>816.5376645420145</v>
+        <v>1016.283936160735</v>
       </c>
       <c r="O18" t="n">
-        <v>1026.982773879069</v>
+        <v>1226.72904549779</v>
       </c>
       <c r="P18" t="n">
-        <v>1176.550461047347</v>
+        <v>1376.296732666068</v>
       </c>
       <c r="Q18" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="R18" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S18" t="n">
-        <v>1280.949783321161</v>
+        <v>1280.94978332116</v>
       </c>
       <c r="T18" t="n">
-        <v>1084.840860897488</v>
+        <v>1280.94978332116</v>
       </c>
       <c r="U18" t="n">
-        <v>1084.840860897488</v>
+        <v>1280.94978332116</v>
       </c>
       <c r="V18" t="n">
-        <v>1084.840860897488</v>
+        <v>1280.94978332116</v>
       </c>
       <c r="W18" t="n">
-        <v>830.603504169286</v>
+        <v>1026.712426592959</v>
       </c>
       <c r="X18" t="n">
-        <v>830.603504169286</v>
+        <v>1026.712426592959</v>
       </c>
       <c r="Y18" t="n">
-        <v>830.603504169286</v>
+        <v>818.9521278280047</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>642.3830549041503</v>
+        <v>646.9644820314279</v>
       </c>
       <c r="C19" t="n">
-        <v>473.4468719762434</v>
+        <v>478.028299103521</v>
       </c>
       <c r="D19" t="n">
-        <v>323.3302325639077</v>
+        <v>463.868971989842</v>
       </c>
       <c r="E19" t="n">
-        <v>175.4171389815146</v>
+        <v>315.9558784074488</v>
       </c>
       <c r="F19" t="n">
-        <v>28.52719148360423</v>
+        <v>315.9558784074488</v>
       </c>
       <c r="G19" t="n">
-        <v>28.52719148360423</v>
+        <v>147.5321468018108</v>
       </c>
       <c r="H19" t="n">
-        <v>28.52719148360423</v>
+        <v>147.5321468018108</v>
       </c>
       <c r="I19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="J19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="K19" t="n">
-        <v>150.4262071982334</v>
+        <v>150.4262071982333</v>
       </c>
       <c r="L19" t="n">
         <v>361.9414135537029</v>
@@ -5698,25 +5698,25 @@
         <v>1193.692862342906</v>
       </c>
       <c r="S19" t="n">
-        <v>1193.692862342906</v>
+        <v>989.44374473933</v>
       </c>
       <c r="T19" t="n">
-        <v>1193.692862342906</v>
+        <v>989.44374473933</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.161173167083</v>
+        <v>700.3015563205904</v>
       </c>
       <c r="V19" t="n">
-        <v>1088.858976938038</v>
+        <v>690.999360091546</v>
       </c>
       <c r="W19" t="n">
-        <v>1044.82409887792</v>
+        <v>646.9644820314279</v>
       </c>
       <c r="X19" t="n">
-        <v>1044.82409887792</v>
+        <v>646.9644820314279</v>
       </c>
       <c r="Y19" t="n">
-        <v>824.03151973439</v>
+        <v>646.9644820314279</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>810.9578074646654</v>
+        <v>810.9578074646648</v>
       </c>
       <c r="C20" t="n">
-        <v>687.3775825010961</v>
+        <v>687.3775825010956</v>
       </c>
       <c r="D20" t="n">
-        <v>574.494175871188</v>
+        <v>574.4941758711876</v>
       </c>
       <c r="E20" t="n">
-        <v>434.0882152497861</v>
+        <v>434.0882152497859</v>
       </c>
       <c r="F20" t="n">
-        <v>268.484602437021</v>
+        <v>268.4846024370208</v>
       </c>
       <c r="G20" t="n">
-        <v>97.18733256212995</v>
+        <v>97.18733256212987</v>
       </c>
       <c r="H20" t="n">
         <v>28.52719148360422</v>
@@ -5750,19 +5750,19 @@
         <v>28.52719148360422</v>
       </c>
       <c r="J20" t="n">
-        <v>83.71911784006738</v>
+        <v>83.71911784006777</v>
       </c>
       <c r="K20" t="n">
-        <v>217.1760266634135</v>
+        <v>217.1760266634139</v>
       </c>
       <c r="L20" t="n">
-        <v>419.6428849838406</v>
+        <v>419.642884983841</v>
       </c>
       <c r="M20" t="n">
         <v>676.5957134965333</v>
       </c>
       <c r="N20" t="n">
-        <v>942.3201157893058</v>
+        <v>942.3201157893059</v>
       </c>
       <c r="O20" t="n">
         <v>1179.900872569998</v>
@@ -5786,16 +5786,16 @@
         <v>1418.082820495151</v>
       </c>
       <c r="V20" t="n">
-        <v>1332.402225128423</v>
+        <v>1332.402225128422</v>
       </c>
       <c r="W20" t="n">
-        <v>1225.015861835152</v>
+        <v>1225.015861835151</v>
       </c>
       <c r="X20" t="n">
-        <v>1096.932395550914</v>
+        <v>1096.932395550913</v>
       </c>
       <c r="Y20" t="n">
-        <v>952.1753555519448</v>
+        <v>952.1753555519441</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>384.6352671442942</v>
+        <v>304.885268635679</v>
       </c>
       <c r="C21" t="n">
-        <v>276.2681314891066</v>
+        <v>304.885268635679</v>
       </c>
       <c r="D21" t="n">
-        <v>127.3337218278553</v>
+        <v>213.4465506258429</v>
       </c>
       <c r="E21" t="n">
-        <v>127.3337218278553</v>
+        <v>213.4465506258429</v>
       </c>
       <c r="F21" t="n">
-        <v>127.3337218278553</v>
+        <v>66.91199265272789</v>
       </c>
       <c r="G21" t="n">
-        <v>127.3337218278553</v>
+        <v>66.91199265272789</v>
       </c>
       <c r="H21" t="n">
-        <v>28.52719148360422</v>
+        <v>66.91199265272789</v>
       </c>
       <c r="I21" t="n">
         <v>28.52719148360422</v>
       </c>
       <c r="J21" t="n">
-        <v>42.58127776197354</v>
+        <v>123.0414512216908</v>
       </c>
       <c r="K21" t="n">
-        <v>144.7567744385588</v>
+        <v>225.2169478982761</v>
       </c>
       <c r="L21" t="n">
-        <v>328.4668801148406</v>
+        <v>408.9270535745579</v>
       </c>
       <c r="M21" t="n">
-        <v>562.204776565439</v>
+        <v>761.9510481841601</v>
       </c>
       <c r="N21" t="n">
-        <v>816.5376645420145</v>
+        <v>1016.283936160735</v>
       </c>
       <c r="O21" t="n">
-        <v>1169.561659151617</v>
+        <v>1226.72904549779</v>
       </c>
       <c r="P21" t="n">
         <v>1376.296732666068</v>
@@ -5853,28 +5853,28 @@
         <v>1426.359574180211</v>
       </c>
       <c r="R21" t="n">
-        <v>1418.808682286724</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S21" t="n">
-        <v>1418.808682286724</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="T21" t="n">
-        <v>1222.699759863051</v>
+        <v>1230.250651756537</v>
       </c>
       <c r="U21" t="n">
-        <v>1222.699759863051</v>
+        <v>1002.126233801156</v>
       </c>
       <c r="V21" t="n">
-        <v>1222.699759863051</v>
+        <v>766.9741255694134</v>
       </c>
       <c r="W21" t="n">
-        <v>968.462403134849</v>
+        <v>512.7367688412119</v>
       </c>
       <c r="X21" t="n">
-        <v>760.6109029293161</v>
+        <v>304.885268635679</v>
       </c>
       <c r="Y21" t="n">
-        <v>552.8506041643623</v>
+        <v>304.885268635679</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>329.0668835825857</v>
+        <v>500.9795317413746</v>
       </c>
       <c r="C22" t="n">
-        <v>329.0668835825857</v>
+        <v>332.0433488134677</v>
       </c>
       <c r="D22" t="n">
-        <v>329.0668835825857</v>
+        <v>332.0433488134677</v>
       </c>
       <c r="E22" t="n">
-        <v>181.1537900001926</v>
+        <v>332.0433488134677</v>
       </c>
       <c r="F22" t="n">
-        <v>181.1537900001926</v>
+        <v>332.0433488134677</v>
       </c>
       <c r="G22" t="n">
         <v>181.1537900001926</v>
@@ -5938,22 +5938,22 @@
         <v>1071.448345347294</v>
       </c>
       <c r="T22" t="n">
-        <v>846.6015422734768</v>
+        <v>1071.448345347294</v>
       </c>
       <c r="U22" t="n">
-        <v>802.8416458315796</v>
+        <v>782.3061569285544</v>
       </c>
       <c r="V22" t="n">
-        <v>793.5394496025351</v>
+        <v>773.00396069951</v>
       </c>
       <c r="W22" t="n">
-        <v>749.5045715424169</v>
+        <v>728.9690826393919</v>
       </c>
       <c r="X22" t="n">
-        <v>549.8594627261158</v>
+        <v>500.9795317413746</v>
       </c>
       <c r="Y22" t="n">
-        <v>329.0668835825857</v>
+        <v>500.9795317413746</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>810.9578074646646</v>
+        <v>810.9578074646655</v>
       </c>
       <c r="C23" t="n">
-        <v>687.3775825010953</v>
+        <v>687.3775825010962</v>
       </c>
       <c r="D23" t="n">
-        <v>574.4941758711873</v>
+        <v>574.4941758711882</v>
       </c>
       <c r="E23" t="n">
-        <v>434.0882152497857</v>
+        <v>434.0882152497865</v>
       </c>
       <c r="F23" t="n">
-        <v>268.4846024370204</v>
+        <v>268.4846024370215</v>
       </c>
       <c r="G23" t="n">
-        <v>97.18733256212995</v>
+        <v>97.18733256212987</v>
       </c>
       <c r="H23" t="n">
         <v>28.52719148360422</v>
@@ -5990,22 +5990,22 @@
         <v>83.71911784006777</v>
       </c>
       <c r="K23" t="n">
-        <v>217.1760266634139</v>
+        <v>217.1760266634135</v>
       </c>
       <c r="L23" t="n">
-        <v>419.642884983841</v>
+        <v>419.6428849838406</v>
       </c>
       <c r="M23" t="n">
-        <v>676.5957134965338</v>
+        <v>676.5957134965333</v>
       </c>
       <c r="N23" t="n">
-        <v>942.3201157893063</v>
+        <v>942.3201157893059</v>
       </c>
       <c r="O23" t="n">
         <v>1179.900872569998</v>
       </c>
       <c r="P23" t="n">
-        <v>1348.169550998292</v>
+        <v>1348.169550998291</v>
       </c>
       <c r="Q23" t="n">
         <v>1426.359574180211</v>
@@ -6029,10 +6029,10 @@
         <v>1225.015861835151</v>
       </c>
       <c r="X23" t="n">
-        <v>1096.932395550913</v>
+        <v>1096.932395550914</v>
       </c>
       <c r="Y23" t="n">
-        <v>952.175355551944</v>
+        <v>952.1753555519447</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>536.8339895682212</v>
+        <v>521.6184152925497</v>
       </c>
       <c r="C24" t="n">
-        <v>362.3809602870942</v>
+        <v>521.6184152925497</v>
       </c>
       <c r="D24" t="n">
-        <v>213.4465506258429</v>
+        <v>372.6840056312984</v>
       </c>
       <c r="E24" t="n">
         <v>213.4465506258429</v>
@@ -6072,16 +6072,16 @@
         <v>144.7567744385588</v>
       </c>
       <c r="L24" t="n">
-        <v>328.4668801148406</v>
+        <v>408.9270535745579</v>
       </c>
       <c r="M24" t="n">
-        <v>562.204776565439</v>
+        <v>761.9510481841601</v>
       </c>
       <c r="N24" t="n">
-        <v>816.5376645420145</v>
+        <v>1016.283936160735</v>
       </c>
       <c r="O24" t="n">
-        <v>1169.561659151617</v>
+        <v>1226.72904549779</v>
       </c>
       <c r="P24" t="n">
         <v>1376.296732666068</v>
@@ -6090,28 +6090,28 @@
         <v>1426.359574180211</v>
       </c>
       <c r="R24" t="n">
-        <v>1418.808682286724</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S24" t="n">
-        <v>1273.398891427674</v>
+        <v>1280.94978332116</v>
       </c>
       <c r="T24" t="n">
-        <v>1077.289969004</v>
+        <v>1084.840860897487</v>
       </c>
       <c r="U24" t="n">
-        <v>1077.289969004</v>
+        <v>1084.840860897487</v>
       </c>
       <c r="V24" t="n">
-        <v>1077.289969004</v>
+        <v>849.688752665744</v>
       </c>
       <c r="W24" t="n">
-        <v>912.900826793822</v>
+        <v>595.4513959375424</v>
       </c>
       <c r="X24" t="n">
-        <v>705.0493265882892</v>
+        <v>595.4513959375424</v>
       </c>
       <c r="Y24" t="n">
-        <v>705.0493265882892</v>
+        <v>595.4513959375424</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>660.6901470974526</v>
+        <v>444.7183317309467</v>
       </c>
       <c r="C25" t="n">
-        <v>491.7539641695457</v>
+        <v>326.556924478333</v>
       </c>
       <c r="D25" t="n">
-        <v>491.7539641695457</v>
+        <v>176.4402850659973</v>
       </c>
       <c r="E25" t="n">
-        <v>343.8408705871526</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="F25" t="n">
-        <v>196.9509230892422</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="G25" t="n">
         <v>28.52719148360422</v>
@@ -6169,28 +6169,28 @@
         <v>1193.692862342906</v>
       </c>
       <c r="R25" t="n">
-        <v>1071.448345347294</v>
+        <v>1193.692862342906</v>
       </c>
       <c r="S25" t="n">
-        <v>978.5796969720426</v>
+        <v>1193.692862342906</v>
       </c>
       <c r="T25" t="n">
-        <v>978.5796969720426</v>
+        <v>968.8460592690885</v>
       </c>
       <c r="U25" t="n">
-        <v>934.8198005301455</v>
+        <v>925.0861628271914</v>
       </c>
       <c r="V25" t="n">
-        <v>925.517604301101</v>
+        <v>915.783966598147</v>
       </c>
       <c r="W25" t="n">
-        <v>881.4827262409827</v>
+        <v>626.3667965611864</v>
       </c>
       <c r="X25" t="n">
-        <v>881.4827262409827</v>
+        <v>626.3667965611864</v>
       </c>
       <c r="Y25" t="n">
-        <v>660.6901470974526</v>
+        <v>626.3667965611864</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1619.642009607692</v>
+        <v>1619.642009607693</v>
       </c>
       <c r="C26" t="n">
-        <v>1366.982677879085</v>
+        <v>1366.982677879086</v>
       </c>
       <c r="D26" t="n">
-        <v>1125.020164484139</v>
+        <v>1125.02016448414</v>
       </c>
       <c r="E26" t="n">
-        <v>855.5350970976992</v>
+        <v>855.5350970976999</v>
       </c>
       <c r="F26" t="n">
-        <v>560.8523775198964</v>
+        <v>560.8523775198969</v>
       </c>
       <c r="G26" t="n">
         <v>260.4760008799679</v>
       </c>
       <c r="H26" t="n">
-        <v>62.73675303640418</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="I26" t="n">
-        <v>62.73675303640418</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J26" t="n">
-        <v>117.9286793928677</v>
+        <v>117.9286793928678</v>
       </c>
       <c r="K26" t="n">
-        <v>572.289546661667</v>
+        <v>251.3855882162139</v>
       </c>
       <c r="L26" t="n">
-        <v>1188.24100738704</v>
+        <v>867.3370489415869</v>
       </c>
       <c r="M26" t="n">
-        <v>1445.193835899733</v>
+        <v>1569.308275612184</v>
       </c>
       <c r="N26" t="n">
-        <v>1721.900900695386</v>
+        <v>1835.032677904956</v>
       </c>
       <c r="O26" t="n">
-        <v>2336.473836926196</v>
+        <v>2361.606388366924</v>
       </c>
       <c r="P26" t="n">
-        <v>2823.323236444257</v>
+        <v>2848.455787884985</v>
       </c>
       <c r="Q26" t="n">
-        <v>3111.705100379483</v>
+        <v>3136.83765182021</v>
       </c>
       <c r="R26" t="n">
-        <v>3136.837651820209</v>
+        <v>3136.83765182021</v>
       </c>
       <c r="S26" t="n">
         <v>3106.228110769875</v>
@@ -6260,16 +6260,16 @@
         <v>2872.162556463369</v>
       </c>
       <c r="V26" t="n">
-        <v>2657.402854331602</v>
+        <v>2657.402854331603</v>
       </c>
       <c r="W26" t="n">
-        <v>2420.937384273292</v>
+        <v>2420.937384273293</v>
       </c>
       <c r="X26" t="n">
-        <v>2163.774811224017</v>
+        <v>2163.774811224018</v>
       </c>
       <c r="Y26" t="n">
-        <v>1889.938664460009</v>
+        <v>1889.93866446001</v>
       </c>
     </row>
     <row r="27">
@@ -6291,7 +6291,7 @@
         <v>483.6856232551819</v>
       </c>
       <c r="F27" t="n">
-        <v>337.1510652820668</v>
+        <v>337.1510652820669</v>
       </c>
       <c r="G27" t="n">
         <v>199.928084549779</v>
@@ -6300,28 +6300,28 @@
         <v>101.1215542055279</v>
       </c>
       <c r="I27" t="n">
-        <v>62.73675303640418</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J27" t="n">
-        <v>201.6209643017783</v>
+        <v>76.79083931477354</v>
       </c>
       <c r="K27" t="n">
-        <v>303.7964609783635</v>
+        <v>440.7869206338116</v>
       </c>
       <c r="L27" t="n">
-        <v>487.5065666546454</v>
+        <v>782.9777551258393</v>
       </c>
       <c r="M27" t="n">
-        <v>721.2444631052438</v>
+        <v>1477.763664688938</v>
       </c>
       <c r="N27" t="n">
-        <v>1450.126301681937</v>
+        <v>2206.645503265631</v>
       </c>
       <c r="O27" t="n">
-        <v>1893.835956790657</v>
+        <v>2417.090612602686</v>
       </c>
       <c r="P27" t="n">
-        <v>2358.681784912473</v>
+        <v>2566.658299770964</v>
       </c>
       <c r="Q27" t="n">
         <v>2616.721141285106</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>302.5256054147522</v>
+        <v>302.5256054147521</v>
       </c>
       <c r="C28" t="n">
-        <v>249.8926076986497</v>
+        <v>249.8926076986496</v>
       </c>
       <c r="D28" t="n">
         <v>216.0791534981184</v>
@@ -6376,13 +6376,13 @@
         <v>101.7619364475903</v>
       </c>
       <c r="H28" t="n">
-        <v>65.43852314280636</v>
+        <v>65.43852314280637</v>
       </c>
       <c r="I28" t="n">
-        <v>62.73675303640418</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J28" t="n">
-        <v>62.73675303640418</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="K28" t="n">
         <v>184.6357687510333</v>
@@ -6418,10 +6418,10 @@
         <v>895.5419324703646</v>
       </c>
       <c r="V28" t="n">
-        <v>757.1606294762822</v>
+        <v>757.1606294762821</v>
       </c>
       <c r="W28" t="n">
-        <v>584.046644651126</v>
+        <v>584.0466446511259</v>
       </c>
       <c r="X28" t="n">
         <v>472.3602789649131</v>
@@ -6446,49 +6446,49 @@
         <v>1125.020164484141</v>
       </c>
       <c r="E29" t="n">
-        <v>855.5350970977015</v>
+        <v>855.5350970977012</v>
       </c>
       <c r="F29" t="n">
-        <v>560.8523775198985</v>
+        <v>560.852377519898</v>
       </c>
       <c r="G29" t="n">
         <v>260.4760008799679</v>
       </c>
       <c r="H29" t="n">
-        <v>62.7367530364042</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="I29" t="n">
-        <v>62.7367530364042</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J29" t="n">
-        <v>117.9286793928678</v>
+        <v>193.1766528180014</v>
       </c>
       <c r="K29" t="n">
-        <v>251.3855882162139</v>
+        <v>647.5375200868007</v>
       </c>
       <c r="L29" t="n">
-        <v>779.337823172744</v>
+        <v>850.0043784072277</v>
       </c>
       <c r="M29" t="n">
-        <v>1481.309049843341</v>
+        <v>1551.975605077825</v>
       </c>
       <c r="N29" t="n">
-        <v>1747.033452136114</v>
+        <v>2250.673462538462</v>
       </c>
       <c r="O29" t="n">
-        <v>2361.606388366923</v>
+        <v>2865.246398769271</v>
       </c>
       <c r="P29" t="n">
-        <v>2848.455787884985</v>
+        <v>3033.515077197565</v>
       </c>
       <c r="Q29" t="n">
-        <v>3136.83765182021</v>
+        <v>3111.705100379484</v>
       </c>
       <c r="R29" t="n">
         <v>3136.83765182021</v>
       </c>
       <c r="S29" t="n">
-        <v>3106.228110769876</v>
+        <v>3106.228110769877</v>
       </c>
       <c r="T29" t="n">
         <v>3009.518416913468</v>
@@ -6506,7 +6506,7 @@
         <v>2163.774811224019</v>
       </c>
       <c r="Y29" t="n">
-        <v>1889.938664460012</v>
+        <v>1889.938664460011</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>101.1215542055279</v>
       </c>
       <c r="I30" t="n">
-        <v>62.7367530364042</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J30" t="n">
-        <v>201.6209643017783</v>
+        <v>76.79083931477354</v>
       </c>
       <c r="K30" t="n">
-        <v>565.6170456208163</v>
+        <v>232.135707599133</v>
       </c>
       <c r="L30" t="n">
-        <v>749.3271512970981</v>
+        <v>782.9777551258393</v>
       </c>
       <c r="M30" t="n">
-        <v>1444.113060860196</v>
+        <v>1477.763664688938</v>
       </c>
       <c r="N30" t="n">
-        <v>1698.445948836772</v>
+        <v>2206.645503265631</v>
       </c>
       <c r="O30" t="n">
-        <v>2209.114097744195</v>
+        <v>2417.090612602686</v>
       </c>
       <c r="P30" t="n">
-        <v>2358.681784912473</v>
+        <v>2566.658299770964</v>
       </c>
       <c r="Q30" t="n">
         <v>2616.721141285106</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302.525605414752</v>
+        <v>302.5256054147521</v>
       </c>
       <c r="C31" t="n">
         <v>249.8926076986496</v>
       </c>
       <c r="D31" t="n">
-        <v>216.0791534981183</v>
+        <v>216.0791534981184</v>
       </c>
       <c r="E31" t="n">
         <v>184.4692451275297</v>
@@ -6610,31 +6610,31 @@
         <v>153.8824828414238</v>
       </c>
       <c r="G31" t="n">
-        <v>101.7619364475902</v>
+        <v>101.7619364475903</v>
       </c>
       <c r="H31" t="n">
-        <v>65.43852314280636</v>
+        <v>65.43852314280637</v>
       </c>
       <c r="I31" t="n">
-        <v>62.7367530364042</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J31" t="n">
-        <v>62.7367530364042</v>
+        <v>105.6461468555895</v>
       </c>
       <c r="K31" t="n">
-        <v>184.6357687510333</v>
+        <v>227.5451625702186</v>
       </c>
       <c r="L31" t="n">
-        <v>396.1509751065029</v>
+        <v>439.0603689256882</v>
       </c>
       <c r="M31" t="n">
-        <v>629.5532266825679</v>
+        <v>672.4626205017532</v>
       </c>
       <c r="N31" t="n">
-        <v>862.8403108176905</v>
+        <v>905.7497046368758</v>
       </c>
       <c r="O31" t="n">
-        <v>1062.302396110711</v>
+        <v>1105.211789929897</v>
       </c>
       <c r="P31" t="n">
         <v>1252.365379809219</v>
@@ -6649,22 +6649,22 @@
         <v>1176.924553539312</v>
       </c>
       <c r="T31" t="n">
-        <v>1068.380935677299</v>
+        <v>1068.3809356773</v>
       </c>
       <c r="U31" t="n">
-        <v>895.5419324703644</v>
+        <v>895.5419324703646</v>
       </c>
       <c r="V31" t="n">
-        <v>757.160629476282</v>
+        <v>757.1606294762821</v>
       </c>
       <c r="W31" t="n">
-        <v>584.0466446511258</v>
+        <v>584.0466446511259</v>
       </c>
       <c r="X31" t="n">
-        <v>472.3602789649129</v>
+        <v>472.3602789649131</v>
       </c>
       <c r="Y31" t="n">
-        <v>367.8708850331873</v>
+        <v>367.8708850331874</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>855.5350970977011</v>
       </c>
       <c r="F32" t="n">
-        <v>560.852377519898</v>
+        <v>560.8523775198979</v>
       </c>
       <c r="G32" t="n">
         <v>260.4760008799679</v>
       </c>
       <c r="H32" t="n">
-        <v>62.7367530364042</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="I32" t="n">
-        <v>62.7367530364042</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J32" t="n">
-        <v>285.3343284132208</v>
+        <v>117.9286793928678</v>
       </c>
       <c r="K32" t="n">
-        <v>418.791237236567</v>
+        <v>572.289546661667</v>
       </c>
       <c r="L32" t="n">
-        <v>1034.74269796194</v>
+        <v>1188.24100738704</v>
       </c>
       <c r="M32" t="n">
-        <v>1736.713924632537</v>
+        <v>1445.193835899733</v>
       </c>
       <c r="N32" t="n">
-        <v>2002.438326925309</v>
+        <v>2143.89169336037</v>
       </c>
       <c r="O32" t="n">
-        <v>2617.011263156119</v>
+        <v>2758.464629591179</v>
       </c>
       <c r="P32" t="n">
-        <v>2823.323236444258</v>
+        <v>2926.733308019473</v>
       </c>
       <c r="Q32" t="n">
-        <v>3111.705100379484</v>
+        <v>3136.83765182021</v>
       </c>
       <c r="R32" t="n">
         <v>3136.83765182021</v>
@@ -6743,7 +6743,7 @@
         <v>2163.774811224019</v>
       </c>
       <c r="Y32" t="n">
-        <v>1889.938664460011</v>
+        <v>1889.938664460012</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>101.1215542055279</v>
       </c>
       <c r="I33" t="n">
-        <v>62.7367530364042</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J33" t="n">
-        <v>76.79083931477354</v>
+        <v>201.6209643017783</v>
       </c>
       <c r="K33" t="n">
-        <v>178.9663359913588</v>
+        <v>565.6170456208163</v>
       </c>
       <c r="L33" t="n">
-        <v>362.6764416676406</v>
+        <v>1116.459093147523</v>
       </c>
       <c r="M33" t="n">
-        <v>879.8634537464845</v>
+        <v>1477.763664688938</v>
       </c>
       <c r="N33" t="n">
-        <v>1608.745292323178</v>
+        <v>2206.645503265631</v>
       </c>
       <c r="O33" t="n">
-        <v>2209.114097744195</v>
+        <v>2417.090612602686</v>
       </c>
       <c r="P33" t="n">
-        <v>2358.681784912473</v>
+        <v>2566.658299770964</v>
       </c>
       <c r="Q33" t="n">
         <v>2616.721141285106</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.5256054147519</v>
+        <v>302.5256054147522</v>
       </c>
       <c r="C34" t="n">
-        <v>249.8926076986495</v>
+        <v>249.8926076986497</v>
       </c>
       <c r="D34" t="n">
-        <v>216.0791534981182</v>
+        <v>216.0791534981184</v>
       </c>
       <c r="E34" t="n">
-        <v>184.4692451275296</v>
+        <v>184.4692451275298</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8824828414237</v>
+        <v>153.8824828414238</v>
       </c>
       <c r="G34" t="n">
-        <v>101.7619364475902</v>
+        <v>101.7619364475903</v>
       </c>
       <c r="H34" t="n">
-        <v>65.43852314280635</v>
+        <v>65.43852314280639</v>
       </c>
       <c r="I34" t="n">
-        <v>62.7367530364042</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J34" t="n">
-        <v>62.7367530364042</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="K34" t="n">
         <v>184.6357687510333</v>
       </c>
       <c r="L34" t="n">
-        <v>439.0603689256877</v>
+        <v>396.1509751065029</v>
       </c>
       <c r="M34" t="n">
-        <v>672.4626205017528</v>
+        <v>672.4626205017532</v>
       </c>
       <c r="N34" t="n">
-        <v>905.7497046368753</v>
+        <v>905.7497046368758</v>
       </c>
       <c r="O34" t="n">
-        <v>1105.211789929896</v>
+        <v>1105.211789929897</v>
       </c>
       <c r="P34" t="n">
         <v>1252.365379809219</v>
@@ -6880,28 +6880,28 @@
         <v>1270.811817714891</v>
       </c>
       <c r="R34" t="n">
-        <v>1264.870485931083</v>
+        <v>1264.870485931084</v>
       </c>
       <c r="S34" t="n">
         <v>1176.924553539312</v>
       </c>
       <c r="T34" t="n">
-        <v>1068.380935677299</v>
+        <v>1068.3809356773</v>
       </c>
       <c r="U34" t="n">
-        <v>895.5419324703643</v>
+        <v>895.5419324703646</v>
       </c>
       <c r="V34" t="n">
-        <v>757.1606294762819</v>
+        <v>757.1606294762822</v>
       </c>
       <c r="W34" t="n">
-        <v>584.0466446511257</v>
+        <v>584.046644651126</v>
       </c>
       <c r="X34" t="n">
-        <v>472.3602789649128</v>
+        <v>472.3602789649131</v>
       </c>
       <c r="Y34" t="n">
-        <v>367.8708850331872</v>
+        <v>367.8708850331874</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>955.858244229154</v>
+        <v>955.8582442291563</v>
       </c>
       <c r="C35" t="n">
-        <v>809.0750081497026</v>
+        <v>809.0750081497044</v>
       </c>
       <c r="D35" t="n">
-        <v>672.9885904039123</v>
+        <v>672.9885904039138</v>
       </c>
       <c r="E35" t="n">
-        <v>509.3796186666283</v>
+        <v>509.3796186666294</v>
       </c>
       <c r="F35" t="n">
-        <v>320.5729947379809</v>
+        <v>320.5729947379816</v>
       </c>
       <c r="G35" t="n">
-        <v>126.0727137472078</v>
+        <v>126.0727137472083</v>
       </c>
       <c r="H35" t="n">
-        <v>34.20956155279986</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="I35" t="n">
-        <v>34.20956155279986</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="J35" t="n">
-        <v>89.40148790926341</v>
+        <v>89.40148790926351</v>
       </c>
       <c r="K35" t="n">
-        <v>222.8583967326096</v>
+        <v>222.8583967326097</v>
       </c>
       <c r="L35" t="n">
-        <v>425.3252550530367</v>
+        <v>425.3252550530368</v>
       </c>
       <c r="M35" t="n">
-        <v>682.2780835657295</v>
+        <v>803.0952950331932</v>
       </c>
       <c r="N35" t="n">
-        <v>948.002485858502</v>
+        <v>1226.438619249093</v>
       </c>
       <c r="O35" t="n">
-        <v>1228.694983835748</v>
+        <v>1464.019376029784</v>
       </c>
       <c r="P35" t="n">
-        <v>1396.963662264042</v>
+        <v>1632.288054458078</v>
       </c>
       <c r="Q35" t="n">
-        <v>1685.345526199267</v>
+        <v>1710.478077639998</v>
       </c>
       <c r="R35" t="n">
-        <v>1710.478077639993</v>
+        <v>1710.478077639998</v>
       </c>
       <c r="S35" t="n">
-        <v>1710.478077639993</v>
+        <v>1710.478077639998</v>
       </c>
       <c r="T35" t="n">
-        <v>1710.478077639993</v>
+        <v>1710.478077639998</v>
       </c>
       <c r="U35" t="n">
-        <v>1678.998312839051</v>
+        <v>1678.998312839055</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.114706356441</v>
+        <v>1570.114706356444</v>
       </c>
       <c r="W35" t="n">
-        <v>1439.525331947287</v>
+        <v>1439.52533194729</v>
       </c>
       <c r="X35" t="n">
-        <v>1288.238854547167</v>
+        <v>1288.23885454717</v>
       </c>
       <c r="Y35" t="n">
-        <v>1120.278803432316</v>
+        <v>1120.278803432318</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>357.5970004951781</v>
+        <v>724.9454952691608</v>
       </c>
       <c r="C36" t="n">
-        <v>183.1439712140511</v>
+        <v>724.9454952691608</v>
       </c>
       <c r="D36" t="n">
-        <v>34.20956155279986</v>
+        <v>576.0110856079095</v>
       </c>
       <c r="E36" t="n">
-        <v>34.20956155279986</v>
+        <v>416.773630602454</v>
       </c>
       <c r="F36" t="n">
-        <v>34.20956155279986</v>
+        <v>270.239072629339</v>
       </c>
       <c r="G36" t="n">
-        <v>34.20956155279986</v>
+        <v>133.0160918970511</v>
       </c>
       <c r="H36" t="n">
-        <v>34.20956155279986</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="I36" t="n">
-        <v>34.20956155279986</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="J36" t="n">
-        <v>48.26364783116919</v>
+        <v>173.093772818174</v>
       </c>
       <c r="K36" t="n">
-        <v>150.4391445077545</v>
+        <v>275.2692694947593</v>
       </c>
       <c r="L36" t="n">
-        <v>334.1492501840363</v>
+        <v>458.9793751710411</v>
       </c>
       <c r="M36" t="n">
-        <v>567.8871466346347</v>
+        <v>838.0930367854562</v>
       </c>
       <c r="N36" t="n">
-        <v>822.2200346112102</v>
+        <v>1092.425924762032</v>
       </c>
       <c r="O36" t="n">
-        <v>1237.071911909953</v>
+        <v>1302.871034099087</v>
       </c>
       <c r="P36" t="n">
-        <v>1660.415236125851</v>
+        <v>1452.438721267365</v>
       </c>
       <c r="Q36" t="n">
-        <v>1710.478077639993</v>
+        <v>1710.478077639998</v>
       </c>
       <c r="R36" t="n">
-        <v>1702.927185746507</v>
+        <v>1710.478077639998</v>
       </c>
       <c r="S36" t="n">
-        <v>1557.517394887456</v>
+        <v>1565.068286780947</v>
       </c>
       <c r="T36" t="n">
-        <v>1361.408472463783</v>
+        <v>1413.712615433053</v>
       </c>
       <c r="U36" t="n">
-        <v>1133.284054508402</v>
+        <v>1185.588197477672</v>
       </c>
       <c r="V36" t="n">
-        <v>898.1319462766589</v>
+        <v>1172.615370106889</v>
       </c>
       <c r="W36" t="n">
-        <v>643.8945895484574</v>
+        <v>1140.557294239647</v>
       </c>
       <c r="X36" t="n">
-        <v>643.8945895484574</v>
+        <v>932.7057940341147</v>
       </c>
       <c r="Y36" t="n">
-        <v>436.1342907835034</v>
+        <v>724.9454952691608</v>
       </c>
     </row>
     <row r="37">
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>193.9352919277449</v>
+        <v>355.7723429972953</v>
       </c>
       <c r="C37" t="n">
-        <v>193.9352919277449</v>
+        <v>186.8361600693883</v>
       </c>
       <c r="D37" t="n">
-        <v>43.81865251540921</v>
+        <v>186.8361600693883</v>
       </c>
       <c r="E37" t="n">
-        <v>43.81865251540921</v>
+        <v>186.8361600693883</v>
       </c>
       <c r="F37" t="n">
-        <v>43.81865251540921</v>
+        <v>186.8361600693883</v>
       </c>
       <c r="G37" t="n">
-        <v>34.20956155279986</v>
+        <v>186.8361600693883</v>
       </c>
       <c r="H37" t="n">
-        <v>34.20956155279986</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="I37" t="n">
-        <v>34.20956155279986</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="J37" t="n">
-        <v>34.20956155279986</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="K37" t="n">
-        <v>156.108577267429</v>
+        <v>156.1085772674291</v>
       </c>
       <c r="L37" t="n">
-        <v>367.6237836228986</v>
+        <v>367.6237836228987</v>
       </c>
       <c r="M37" t="n">
-        <v>601.0260351989637</v>
+        <v>601.0260351989638</v>
       </c>
       <c r="N37" t="n">
-        <v>834.3131193340862</v>
+        <v>834.3131193340863</v>
       </c>
       <c r="O37" t="n">
         <v>1033.775204627107</v>
@@ -7120,25 +7120,25 @@
         <v>1199.375232412101</v>
       </c>
       <c r="S37" t="n">
-        <v>995.1261148085257</v>
+        <v>1199.375232412101</v>
       </c>
       <c r="T37" t="n">
-        <v>770.2793117347085</v>
+        <v>1196.707710199244</v>
       </c>
       <c r="U37" t="n">
-        <v>703.3164041769292</v>
+        <v>907.5655217805045</v>
       </c>
       <c r="V37" t="n">
-        <v>448.6319159710423</v>
+        <v>875.0603144355774</v>
       </c>
       <c r="W37" t="n">
-        <v>381.3940267950418</v>
+        <v>585.6431443986169</v>
       </c>
       <c r="X37" t="n">
-        <v>375.5837567579846</v>
+        <v>537.420807827535</v>
       </c>
       <c r="Y37" t="n">
-        <v>375.5837567579846</v>
+        <v>537.420807827535</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>955.8582442291548</v>
+        <v>955.8582442291565</v>
       </c>
       <c r="C38" t="n">
-        <v>809.0750081497033</v>
+        <v>809.0750081497048</v>
       </c>
       <c r="D38" t="n">
-        <v>672.988590403913</v>
+        <v>672.9885904039141</v>
       </c>
       <c r="E38" t="n">
-        <v>509.379618666629</v>
+        <v>509.3796186666298</v>
       </c>
       <c r="F38" t="n">
-        <v>320.5729947379816</v>
+        <v>320.5729947379821</v>
       </c>
       <c r="G38" t="n">
-        <v>126.0727137472078</v>
+        <v>126.0727137472082</v>
       </c>
       <c r="H38" t="n">
-        <v>34.20956155279988</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="I38" t="n">
-        <v>34.20956155279988</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="J38" t="n">
-        <v>89.40148790926344</v>
+        <v>89.40148790926351</v>
       </c>
       <c r="K38" t="n">
-        <v>246.219884335592</v>
+        <v>501.2945301232002</v>
       </c>
       <c r="L38" t="n">
-        <v>448.6867426560191</v>
+        <v>703.7613884436273</v>
       </c>
       <c r="M38" t="n">
-        <v>705.6395711687119</v>
+        <v>960.7142169563201</v>
       </c>
       <c r="N38" t="n">
-        <v>971.3639734614844</v>
+        <v>1226.438619249093</v>
       </c>
       <c r="O38" t="n">
-        <v>1208.944730242176</v>
+        <v>1464.019376029784</v>
       </c>
       <c r="P38" t="n">
-        <v>1632.288054458075</v>
+        <v>1632.288054458078</v>
       </c>
       <c r="Q38" t="n">
-        <v>1710.478077639994</v>
+        <v>1710.478077639998</v>
       </c>
       <c r="R38" t="n">
-        <v>1710.478077639994</v>
+        <v>1710.478077639998</v>
       </c>
       <c r="S38" t="n">
-        <v>1710.478077639994</v>
+        <v>1710.478077639998</v>
       </c>
       <c r="T38" t="n">
-        <v>1710.478077639994</v>
+        <v>1710.478077639998</v>
       </c>
       <c r="U38" t="n">
-        <v>1678.998312839052</v>
+        <v>1678.998312839055</v>
       </c>
       <c r="V38" t="n">
-        <v>1570.114706356442</v>
+        <v>1570.114706356445</v>
       </c>
       <c r="W38" t="n">
-        <v>1439.525331947288</v>
+        <v>1439.52533194729</v>
       </c>
       <c r="X38" t="n">
-        <v>1288.238854547168</v>
+        <v>1288.23885454717</v>
       </c>
       <c r="Y38" t="n">
-        <v>1120.278803432316</v>
+        <v>1120.278803432318</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>641.354539200581</v>
+        <v>643.8945895484617</v>
       </c>
       <c r="C39" t="n">
-        <v>466.901509919454</v>
+        <v>469.4415602673347</v>
       </c>
       <c r="D39" t="n">
-        <v>317.9671002582028</v>
+        <v>320.5071506060834</v>
       </c>
       <c r="E39" t="n">
-        <v>317.9671002582028</v>
+        <v>320.5071506060834</v>
       </c>
       <c r="F39" t="n">
-        <v>171.4325422850878</v>
+        <v>270.239072629339</v>
       </c>
       <c r="G39" t="n">
-        <v>34.20956155279988</v>
+        <v>133.0160918970511</v>
       </c>
       <c r="H39" t="n">
-        <v>34.20956155279988</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="I39" t="n">
-        <v>34.20956155279988</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="J39" t="n">
-        <v>173.0937728181739</v>
+        <v>48.26364783116928</v>
       </c>
       <c r="K39" t="n">
-        <v>275.2692694947592</v>
+        <v>150.4391445077545</v>
       </c>
       <c r="L39" t="n">
-        <v>698.6125937106577</v>
+        <v>573.7824687236539</v>
       </c>
       <c r="M39" t="n">
-        <v>932.3504901612562</v>
+        <v>997.1257929395533</v>
       </c>
       <c r="N39" t="n">
-        <v>1186.683378137832</v>
+        <v>1300.402439620522</v>
       </c>
       <c r="O39" t="n">
-        <v>1397.128487474886</v>
+        <v>1510.847548957577</v>
       </c>
       <c r="P39" t="n">
-        <v>1546.696174643165</v>
+        <v>1660.415236125855</v>
       </c>
       <c r="Q39" t="n">
-        <v>1710.478077639994</v>
+        <v>1710.478077639998</v>
       </c>
       <c r="R39" t="n">
-        <v>1702.927185746508</v>
+        <v>1702.927185746511</v>
       </c>
       <c r="S39" t="n">
-        <v>1557.517394887457</v>
+        <v>1557.517394887461</v>
       </c>
       <c r="T39" t="n">
-        <v>1557.517394887457</v>
+        <v>1361.408472463787</v>
       </c>
       <c r="U39" t="n">
-        <v>1551.572257793036</v>
+        <v>1133.284054508406</v>
       </c>
       <c r="V39" t="n">
-        <v>1479.419031919337</v>
+        <v>898.1319462766633</v>
       </c>
       <c r="W39" t="n">
-        <v>1225.181675191136</v>
+        <v>643.8945895484617</v>
       </c>
       <c r="X39" t="n">
-        <v>1017.330174985603</v>
+        <v>643.8945895484617</v>
       </c>
       <c r="Y39" t="n">
-        <v>809.5698762206491</v>
+        <v>643.8945895484617</v>
       </c>
     </row>
     <row r="40">
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>479.1292420454391</v>
+        <v>336.952799481724</v>
       </c>
       <c r="C40" t="n">
-        <v>479.1292420454391</v>
+        <v>336.952799481724</v>
       </c>
       <c r="D40" t="n">
-        <v>329.0126026331034</v>
+        <v>186.8361600693883</v>
       </c>
       <c r="E40" t="n">
-        <v>181.0995090507103</v>
+        <v>186.8361600693883</v>
       </c>
       <c r="F40" t="n">
-        <v>34.20956155279988</v>
+        <v>186.8361600693883</v>
       </c>
       <c r="G40" t="n">
-        <v>34.20956155279988</v>
+        <v>186.8361600693883</v>
       </c>
       <c r="H40" t="n">
-        <v>34.20956155279988</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="I40" t="n">
-        <v>34.20956155279988</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="J40" t="n">
-        <v>34.20956155279988</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="K40" t="n">
-        <v>156.108577267429</v>
+        <v>156.1085772674291</v>
       </c>
       <c r="L40" t="n">
-        <v>367.6237836228986</v>
+        <v>367.6237836228987</v>
       </c>
       <c r="M40" t="n">
-        <v>601.0260351989637</v>
+        <v>601.0260351989638</v>
       </c>
       <c r="N40" t="n">
-        <v>834.3131193340862</v>
+        <v>834.3131193340863</v>
       </c>
       <c r="O40" t="n">
         <v>1033.775204627107</v>
@@ -7354,28 +7354,28 @@
         <v>1199.375232412101</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.67160009598</v>
+        <v>1199.375232412101</v>
       </c>
       <c r="S40" t="n">
-        <v>1098.67160009598</v>
+        <v>1199.375232412101</v>
       </c>
       <c r="T40" t="n">
-        <v>873.824797022163</v>
+        <v>1196.707710199244</v>
       </c>
       <c r="U40" t="n">
-        <v>584.6826086034234</v>
+        <v>1109.044008622589</v>
       </c>
       <c r="V40" t="n">
-        <v>552.1774012584967</v>
+        <v>854.359520416702</v>
       </c>
       <c r="W40" t="n">
-        <v>484.9395120824963</v>
+        <v>564.9423503797414</v>
       </c>
       <c r="X40" t="n">
-        <v>479.1292420454391</v>
+        <v>336.952799481724</v>
       </c>
       <c r="Y40" t="n">
-        <v>479.1292420454391</v>
+        <v>336.952799481724</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>955.8582442291538</v>
+        <v>955.8582442291557</v>
       </c>
       <c r="C41" t="n">
-        <v>809.0750081497023</v>
+        <v>809.075008149704</v>
       </c>
       <c r="D41" t="n">
-        <v>672.988590403912</v>
+        <v>672.9885904039133</v>
       </c>
       <c r="E41" t="n">
-        <v>509.3796186666282</v>
+        <v>509.3796186666291</v>
       </c>
       <c r="F41" t="n">
-        <v>320.5729947379809</v>
+        <v>320.5729947379814</v>
       </c>
       <c r="G41" t="n">
-        <v>126.0727137472078</v>
+        <v>126.0727137472082</v>
       </c>
       <c r="H41" t="n">
-        <v>34.20956155279986</v>
+        <v>34.20956155279994</v>
       </c>
       <c r="I41" t="n">
-        <v>34.20956155279986</v>
+        <v>34.20956155279994</v>
       </c>
       <c r="J41" t="n">
-        <v>89.40148790926341</v>
+        <v>256.8071369296165</v>
       </c>
       <c r="K41" t="n">
-        <v>222.8583967326096</v>
+        <v>390.2640457529627</v>
       </c>
       <c r="L41" t="n">
-        <v>425.3252550530367</v>
+        <v>592.7309040733899</v>
       </c>
       <c r="M41" t="n">
-        <v>848.668579268935</v>
+        <v>849.6837325860827</v>
       </c>
       <c r="N41" t="n">
-        <v>1114.392981561708</v>
+        <v>1226.438619249092</v>
       </c>
       <c r="O41" t="n">
-        <v>1351.973738342399</v>
+        <v>1464.019376029784</v>
       </c>
       <c r="P41" t="n">
-        <v>1520.242416770693</v>
+        <v>1632.288054458077</v>
       </c>
       <c r="Q41" t="n">
-        <v>1710.478077639993</v>
+        <v>1710.478077639997</v>
       </c>
       <c r="R41" t="n">
-        <v>1710.478077639993</v>
+        <v>1710.478077639997</v>
       </c>
       <c r="S41" t="n">
-        <v>1710.478077639993</v>
+        <v>1710.478077639997</v>
       </c>
       <c r="T41" t="n">
-        <v>1710.478077639993</v>
+        <v>1710.478077639997</v>
       </c>
       <c r="U41" t="n">
-        <v>1678.998312839051</v>
+        <v>1678.998312839055</v>
       </c>
       <c r="V41" t="n">
-        <v>1570.11470635644</v>
+        <v>1570.114706356444</v>
       </c>
       <c r="W41" t="n">
-        <v>1439.525331947287</v>
+        <v>1439.525331947289</v>
       </c>
       <c r="X41" t="n">
-        <v>1288.238854547167</v>
+        <v>1288.238854547169</v>
       </c>
       <c r="Y41" t="n">
-        <v>1120.278803432315</v>
+        <v>1120.278803432318</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>651.6575845447853</v>
+        <v>626.1073157059966</v>
       </c>
       <c r="C42" t="n">
-        <v>477.2045552636583</v>
+        <v>626.1073157059966</v>
       </c>
       <c r="D42" t="n">
-        <v>477.2045552636583</v>
+        <v>477.1729060447453</v>
       </c>
       <c r="E42" t="n">
-        <v>317.9671002582028</v>
+        <v>317.9354510392898</v>
       </c>
       <c r="F42" t="n">
-        <v>171.4325422850878</v>
+        <v>171.4008930661747</v>
       </c>
       <c r="G42" t="n">
-        <v>34.20956155279986</v>
+        <v>171.4008930661747</v>
       </c>
       <c r="H42" t="n">
-        <v>34.20956155279986</v>
+        <v>72.59436272192362</v>
       </c>
       <c r="I42" t="n">
-        <v>34.20956155279986</v>
+        <v>34.20956155279994</v>
       </c>
       <c r="J42" t="n">
-        <v>173.0937728181739</v>
+        <v>144.5374017223126</v>
       </c>
       <c r="K42" t="n">
-        <v>275.2692694947592</v>
+        <v>246.7128983988978</v>
       </c>
       <c r="L42" t="n">
-        <v>458.9793751710411</v>
+        <v>430.4230040751797</v>
       </c>
       <c r="M42" t="n">
-        <v>692.7172716216394</v>
+        <v>664.1609005257781</v>
       </c>
       <c r="N42" t="n">
-        <v>947.0501595982148</v>
+        <v>1087.504224741677</v>
       </c>
       <c r="O42" t="n">
-        <v>1157.49526893527</v>
+        <v>1510.847548957576</v>
       </c>
       <c r="P42" t="n">
-        <v>1580.838593151168</v>
+        <v>1660.415236125855</v>
       </c>
       <c r="Q42" t="n">
-        <v>1710.478077639993</v>
+        <v>1710.478077639997</v>
       </c>
       <c r="R42" t="n">
-        <v>1710.478077639993</v>
+        <v>1702.92718574651</v>
       </c>
       <c r="S42" t="n">
-        <v>1565.068286780943</v>
+        <v>1702.92718574651</v>
       </c>
       <c r="T42" t="n">
-        <v>1368.959364357269</v>
+        <v>1506.818263322837</v>
       </c>
       <c r="U42" t="n">
-        <v>1140.834946401888</v>
+        <v>1500.873126228416</v>
       </c>
       <c r="V42" t="n">
-        <v>905.6828381701455</v>
+        <v>1265.721017996673</v>
       </c>
       <c r="W42" t="n">
-        <v>819.8729215648534</v>
+        <v>1011.483661268471</v>
       </c>
       <c r="X42" t="n">
-        <v>819.8729215648534</v>
+        <v>1002.082951491019</v>
       </c>
       <c r="Y42" t="n">
-        <v>819.8729215648534</v>
+        <v>794.3226527260647</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>500.1523313909529</v>
+        <v>181.0995090507103</v>
       </c>
       <c r="C43" t="n">
-        <v>331.216148463046</v>
+        <v>181.0995090507103</v>
       </c>
       <c r="D43" t="n">
-        <v>181.0995090507102</v>
+        <v>181.0995090507103</v>
       </c>
       <c r="E43" t="n">
-        <v>181.0995090507102</v>
+        <v>181.0995090507103</v>
       </c>
       <c r="F43" t="n">
-        <v>34.20956155279986</v>
+        <v>34.20956155279994</v>
       </c>
       <c r="G43" t="n">
-        <v>34.20956155279986</v>
+        <v>34.20956155279994</v>
       </c>
       <c r="H43" t="n">
-        <v>34.20956155279986</v>
+        <v>34.20956155279994</v>
       </c>
       <c r="I43" t="n">
-        <v>34.20956155279986</v>
+        <v>34.20956155279994</v>
       </c>
       <c r="J43" t="n">
-        <v>34.20956155279986</v>
+        <v>34.20956155279994</v>
       </c>
       <c r="K43" t="n">
-        <v>156.108577267429</v>
+        <v>156.1085772674291</v>
       </c>
       <c r="L43" t="n">
-        <v>367.6237836228986</v>
+        <v>367.6237836228987</v>
       </c>
       <c r="M43" t="n">
         <v>601.0260351989637</v>
@@ -7591,28 +7591,28 @@
         <v>1199.375232412101</v>
       </c>
       <c r="R43" t="n">
-        <v>1199.375232412101</v>
+        <v>1077.13071541649</v>
       </c>
       <c r="S43" t="n">
-        <v>1199.375232412101</v>
+        <v>1077.13071541649</v>
       </c>
       <c r="T43" t="n">
-        <v>1196.707710199245</v>
+        <v>979.6228097186347</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.533443640137</v>
+        <v>912.659902160855</v>
       </c>
       <c r="V43" t="n">
-        <v>977.0282362952105</v>
+        <v>880.154694815928</v>
       </c>
       <c r="W43" t="n">
-        <v>687.6110662582498</v>
+        <v>590.7375247789673</v>
       </c>
       <c r="X43" t="n">
-        <v>681.8007962211926</v>
+        <v>362.74797388095</v>
       </c>
       <c r="Y43" t="n">
-        <v>681.8007962211926</v>
+        <v>362.74797388095</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>955.8582442291543</v>
+        <v>955.8582442291555</v>
       </c>
       <c r="C44" t="n">
-        <v>809.0750081497029</v>
+        <v>809.0750081497038</v>
       </c>
       <c r="D44" t="n">
-        <v>672.9885904039124</v>
+        <v>672.9885904039133</v>
       </c>
       <c r="E44" t="n">
-        <v>509.3796186666283</v>
+        <v>509.3796186666291</v>
       </c>
       <c r="F44" t="n">
-        <v>320.5729947379809</v>
+        <v>320.5729947379814</v>
       </c>
       <c r="G44" t="n">
-        <v>126.0727137472079</v>
+        <v>126.0727137472082</v>
       </c>
       <c r="H44" t="n">
-        <v>34.20956155279986</v>
+        <v>34.20956155279994</v>
       </c>
       <c r="I44" t="n">
-        <v>34.20956155279986</v>
+        <v>34.20956155279994</v>
       </c>
       <c r="J44" t="n">
-        <v>89.40148790926341</v>
+        <v>89.40148790926349</v>
       </c>
       <c r="K44" t="n">
-        <v>501.2945301231959</v>
+        <v>222.8583967326097</v>
       </c>
       <c r="L44" t="n">
-        <v>703.761388443623</v>
+        <v>646.2017209485089</v>
       </c>
       <c r="M44" t="n">
-        <v>960.7142169563158</v>
+        <v>903.1545494612017</v>
       </c>
       <c r="N44" t="n">
-        <v>1226.438619249088</v>
+        <v>1168.878951753974</v>
       </c>
       <c r="O44" t="n">
-        <v>1464.01937602978</v>
+        <v>1406.459708534666</v>
       </c>
       <c r="P44" t="n">
-        <v>1632.288054458074</v>
+        <v>1574.72838696296</v>
       </c>
       <c r="Q44" t="n">
-        <v>1710.478077639993</v>
+        <v>1710.478077639997</v>
       </c>
       <c r="R44" t="n">
-        <v>1710.478077639993</v>
+        <v>1710.478077639997</v>
       </c>
       <c r="S44" t="n">
-        <v>1710.478077639993</v>
+        <v>1710.478077639997</v>
       </c>
       <c r="T44" t="n">
-        <v>1710.478077639993</v>
+        <v>1710.478077639997</v>
       </c>
       <c r="U44" t="n">
-        <v>1678.998312839052</v>
+        <v>1678.998312839055</v>
       </c>
       <c r="V44" t="n">
-        <v>1570.114706356441</v>
+        <v>1570.114706356444</v>
       </c>
       <c r="W44" t="n">
-        <v>1439.525331947287</v>
+        <v>1439.525331947289</v>
       </c>
       <c r="X44" t="n">
-        <v>1288.238854547167</v>
+        <v>1288.238854547169</v>
       </c>
       <c r="Y44" t="n">
-        <v>1120.278803432316</v>
+        <v>1120.278803432318</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>663.3690134737486</v>
+        <v>762.1755438179998</v>
       </c>
       <c r="C45" t="n">
-        <v>488.9159841926216</v>
+        <v>587.7225145368728</v>
       </c>
       <c r="D45" t="n">
-        <v>339.9815745313704</v>
+        <v>438.7881048756216</v>
       </c>
       <c r="E45" t="n">
-        <v>180.7441195259149</v>
+        <v>279.5506498701661</v>
       </c>
       <c r="F45" t="n">
-        <v>34.20956155279986</v>
+        <v>133.016091897051</v>
       </c>
       <c r="G45" t="n">
-        <v>34.20956155279986</v>
+        <v>133.016091897051</v>
       </c>
       <c r="H45" t="n">
-        <v>34.20956155279986</v>
+        <v>34.20956155279994</v>
       </c>
       <c r="I45" t="n">
-        <v>34.20956155279986</v>
+        <v>34.20956155279994</v>
       </c>
       <c r="J45" t="n">
-        <v>48.26364783116919</v>
+        <v>48.26364783116927</v>
       </c>
       <c r="K45" t="n">
         <v>150.4391445077545</v>
       </c>
       <c r="L45" t="n">
-        <v>334.1492501840363</v>
+        <v>334.1492501840364</v>
       </c>
       <c r="M45" t="n">
-        <v>757.4925743999346</v>
+        <v>567.8871466346347</v>
       </c>
       <c r="N45" t="n">
-        <v>1180.835898615833</v>
+        <v>822.2200346112102</v>
       </c>
       <c r="O45" t="n">
-        <v>1391.281007952888</v>
+        <v>1245.563358827109</v>
       </c>
       <c r="P45" t="n">
-        <v>1540.848695121166</v>
+        <v>1660.415236125855</v>
       </c>
       <c r="Q45" t="n">
-        <v>1710.478077639993</v>
+        <v>1710.478077639997</v>
       </c>
       <c r="R45" t="n">
-        <v>1710.478077639993</v>
+        <v>1710.478077639997</v>
       </c>
       <c r="S45" t="n">
-        <v>1710.478077639993</v>
+        <v>1565.068286780946</v>
       </c>
       <c r="T45" t="n">
-        <v>1710.478077639993</v>
+        <v>1368.959364357273</v>
       </c>
       <c r="U45" t="n">
-        <v>1528.734114218715</v>
+        <v>1140.834946401892</v>
       </c>
       <c r="V45" t="n">
-        <v>1293.582005986972</v>
+        <v>1127.862119031109</v>
       </c>
       <c r="W45" t="n">
-        <v>1039.34464925877</v>
+        <v>873.6247623029074</v>
       </c>
       <c r="X45" t="n">
-        <v>1039.34464925877</v>
+        <v>762.1755438179998</v>
       </c>
       <c r="Y45" t="n">
-        <v>831.5843504938166</v>
+        <v>762.1755438179998</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>631.7558405620274</v>
+        <v>600.6441564678984</v>
       </c>
       <c r="C46" t="n">
-        <v>631.7558405620274</v>
+        <v>600.6441564678984</v>
       </c>
       <c r="D46" t="n">
-        <v>481.6392011496917</v>
+        <v>600.6441564678984</v>
       </c>
       <c r="E46" t="n">
-        <v>333.7261075672986</v>
+        <v>452.7310628855053</v>
       </c>
       <c r="F46" t="n">
-        <v>186.8361600693882</v>
+        <v>305.8411153875949</v>
       </c>
       <c r="G46" t="n">
-        <v>186.8361600693882</v>
+        <v>305.8411153875949</v>
       </c>
       <c r="H46" t="n">
-        <v>34.20956155279986</v>
+        <v>153.2145168710066</v>
       </c>
       <c r="I46" t="n">
-        <v>34.20956155279986</v>
+        <v>34.20956155279994</v>
       </c>
       <c r="J46" t="n">
-        <v>34.20956155279986</v>
+        <v>34.20956155279994</v>
       </c>
       <c r="K46" t="n">
-        <v>156.108577267429</v>
+        <v>156.1085772674291</v>
       </c>
       <c r="L46" t="n">
-        <v>367.6237836228986</v>
+        <v>367.6237836228987</v>
       </c>
       <c r="M46" t="n">
         <v>601.0260351989637</v>
@@ -7834,22 +7834,22 @@
         <v>1199.375232412101</v>
       </c>
       <c r="T46" t="n">
-        <v>1196.707710199245</v>
+        <v>1196.707710199244</v>
       </c>
       <c r="U46" t="n">
-        <v>1129.744802641465</v>
+        <v>1129.744802641464</v>
       </c>
       <c r="V46" t="n">
-        <v>1097.239595296538</v>
+        <v>1097.239595296537</v>
       </c>
       <c r="W46" t="n">
-        <v>1030.001706120538</v>
+        <v>807.8224252595767</v>
       </c>
       <c r="X46" t="n">
-        <v>802.0121552225207</v>
+        <v>802.0121552225191</v>
       </c>
       <c r="Y46" t="n">
-        <v>802.0121552225207</v>
+        <v>782.2926212981381</v>
       </c>
     </row>
   </sheetData>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.3300042762892</v>
+        <v>40.33000427628926</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,19 +8775,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>57.74483469310479</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>144.0190760328761</v>
+        <v>144.019076032876</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.74483469310465</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>201.7639107259804</v>
       </c>
       <c r="L15" t="n">
-        <v>171.0241302356773</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>30.73978049030401</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9246,10 +9246,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>171.024130235677</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>30.73978049030359</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>201.7639107259816</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>81.27290248456291</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,16 +9486,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>120.4910082414179</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>144.019076032876</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>57.74483469310488</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9720,19 +9720,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>81.27290248456291</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>120.4910082414179</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>144.019076032876</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>57.74483469310488</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9875,19 +9875,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>11.09359848775847</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>291.9120744255307</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>40.33000427628926</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>160.0815442583291</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>235.6207533047124</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>76.00805396478148</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>328.7731077132354</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.33000427628926</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>53.70643596744864</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>303.2555955256246</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>38.42757056550087</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>133.2467885038569</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>40.33000427628926</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>286.3122380083288</v>
+        <v>128.855227364461</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10592,22 +10592,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>122.0375873408724</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>159.2110322455827</v>
       </c>
       <c r="O35" t="n">
-        <v>43.54721332985301</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>40.33000427628926</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10671,19 +10671,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>146.8442072361785</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>206.4714827895834</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>276.5410475228487</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>23.59746222523478</v>
+        <v>281.2486195864551</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>257.651157361217</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10899,19 +10899,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>242.0537561006229</v>
+        <v>242.0537561006238</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>191.5206341063646</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>49.43814010544804</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>114.8677388714012</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>168.0712077810157</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>112.1520044143805</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>113.1774118054352</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>40.33000427628926</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.24621605165989</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11148,16 +11148,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>170.7176123629534</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>215.0487018978225</v>
       </c>
       <c r="P42" t="n">
-        <v>276.5410475228488</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>80.3804474491746</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,10 +11297,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>281.2486195864508</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>223.1075413085577</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>58.14107827789678</v>
       </c>
       <c r="R44" t="n">
         <v>40.33000427628926</v>
@@ -11382,19 +11382,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>191.5206341063636</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>170.7176123629525</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>215.0487018978225</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>267.9638284146133</v>
       </c>
       <c r="Q45" t="n">
-        <v>120.7742838431162</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>254.945525966093</v>
+        <v>254.9455259660929</v>
       </c>
       <c r="C11" t="n">
-        <v>237.48457607362</v>
+        <v>237.4845760736199</v>
       </c>
       <c r="D11" t="n">
-        <v>226.8947259232954</v>
+        <v>185.0619606188794</v>
       </c>
       <c r="E11" t="n">
-        <v>254.1420543748742</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>126.0324680695193</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>17.65528330212909</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>83.09443458014339</v>
       </c>
       <c r="U11" t="n">
-        <v>123.3341395078954</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>221.4526530200254</v>
       </c>
       <c r="X11" t="n">
         <v>241.9427849810814</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>258.4496229586659</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>254.945525966093</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>237.48457607362</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>226.8947259232954</v>
+        <v>226.8947259232953</v>
       </c>
       <c r="E14" t="n">
-        <v>254.1420543748742</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>184.9799010837648</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>183.1136930274268</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>17.655283302129</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>83.09443458014339</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>123.3341395078953</v>
       </c>
       <c r="V14" t="n">
-        <v>8.572267920878762</v>
+        <v>199.9639427727473</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>221.4526530200254</v>
       </c>
       <c r="X14" t="n">
         <v>241.9427849810814</v>
       </c>
       <c r="Y14" t="n">
-        <v>258.449622958666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -24026,10 +24026,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-4.689582056016661e-13</v>
       </c>
       <c r="W20" t="n">
-        <v>-5.85001617220778e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307228.6270188894</v>
+        <v>307228.6270188893</v>
       </c>
       <c r="C2" t="n">
-        <v>307228.6270188892</v>
+        <v>307228.6270188893</v>
       </c>
       <c r="D2" t="n">
         <v>307228.6270188893</v>
       </c>
       <c r="E2" t="n">
-        <v>263640.0816868809</v>
+        <v>263640.0816868808</v>
       </c>
       <c r="F2" t="n">
         <v>263640.0816868808</v>
       </c>
       <c r="G2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991058</v>
       </c>
       <c r="H2" t="n">
-        <v>307890.6636991059</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="I2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="J2" t="n">
         <v>307890.6636991064</v>
       </c>
       <c r="K2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="L2" t="n">
+        <v>307890.6636991064</v>
+      </c>
+      <c r="M2" t="n">
         <v>307890.6636991061</v>
       </c>
-      <c r="M2" t="n">
-        <v>307890.6636991062</v>
-      </c>
       <c r="N2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="O2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>766266.5351224333</v>
+        <v>766266.5351224332</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111884.0815365099</v>
+        <v>111884.08153651</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>92112.12268774911</v>
+        <v>92112.1226877491</v>
       </c>
       <c r="M3" t="n">
-        <v>83853.86775413131</v>
+        <v>83853.86775413105</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>161029.3996972911</v>
+        <v>161029.3996972912</v>
       </c>
       <c r="F4" t="n">
-        <v>161029.3996972911</v>
+        <v>161029.3996972912</v>
       </c>
       <c r="G4" t="n">
         <v>228380.8004634457</v>
@@ -26439,13 +26439,13 @@
         <v>228380.8004634457</v>
       </c>
       <c r="J4" t="n">
-        <v>226936.6235532808</v>
+        <v>226936.623553281</v>
       </c>
       <c r="K4" t="n">
         <v>226936.623553281</v>
       </c>
       <c r="L4" t="n">
-        <v>226936.623553281</v>
+        <v>226936.6235532809</v>
       </c>
       <c r="M4" t="n">
         <v>228109.4307260194</v>
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47553.01820892902</v>
+        <v>47553.01820892901</v>
       </c>
       <c r="F5" t="n">
         <v>47553.01820892902</v>
@@ -26485,31 +26485,31 @@
         <v>57232.73576172449</v>
       </c>
       <c r="H5" t="n">
-        <v>57232.73576172448</v>
+        <v>57232.73576172449</v>
       </c>
       <c r="I5" t="n">
-        <v>57232.73576172448</v>
+        <v>57232.73576172449</v>
       </c>
       <c r="J5" t="n">
-        <v>72488.96662948877</v>
+        <v>72488.9666294888</v>
       </c>
       <c r="K5" t="n">
-        <v>72488.96662948879</v>
+        <v>72488.9666294888</v>
       </c>
       <c r="L5" t="n">
-        <v>72488.96662948879</v>
+        <v>72488.9666294888</v>
       </c>
       <c r="M5" t="n">
-        <v>59620.18961222708</v>
+        <v>59620.18961222711</v>
       </c>
       <c r="N5" t="n">
-        <v>59620.18961222709</v>
+        <v>59620.18961222711</v>
       </c>
       <c r="O5" t="n">
-        <v>59620.18961222708</v>
+        <v>59620.1896122271</v>
       </c>
       <c r="P5" t="n">
-        <v>59620.18961222708</v>
+        <v>59620.1896122271</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-189549.7040832204</v>
+        <v>-189554.1176610886</v>
       </c>
       <c r="C6" t="n">
-        <v>-189549.7040832205</v>
+        <v>-189554.1176610886</v>
       </c>
       <c r="D6" t="n">
-        <v>-189549.7040832205</v>
+        <v>-189554.1176610886</v>
       </c>
       <c r="E6" t="n">
-        <v>-711208.8713417725</v>
+        <v>-711503.8752218541</v>
       </c>
       <c r="F6" t="n">
-        <v>55057.66378066062</v>
+        <v>54762.6599005791</v>
       </c>
       <c r="G6" t="n">
-        <v>-69834.99521381305</v>
+        <v>-69834.99521381348</v>
       </c>
       <c r="H6" t="n">
-        <v>22277.12747393577</v>
+        <v>22277.12747393596</v>
       </c>
       <c r="I6" t="n">
-        <v>22277.12747393612</v>
+        <v>22277.12747393599</v>
       </c>
       <c r="J6" t="n">
-        <v>-103419.0080201731</v>
+        <v>-103419.0080201734</v>
       </c>
       <c r="K6" t="n">
-        <v>8465.073516336517</v>
+        <v>8465.073516336328</v>
       </c>
       <c r="L6" t="n">
-        <v>-83647.0491714127</v>
+        <v>-83647.04917141239</v>
       </c>
       <c r="M6" t="n">
-        <v>-63692.82439327164</v>
+        <v>-63692.82439327144</v>
       </c>
       <c r="N6" t="n">
-        <v>20161.0433608595</v>
+        <v>20161.04336085953</v>
       </c>
       <c r="O6" t="n">
-        <v>20161.04336085951</v>
+        <v>20161.04336085964</v>
       </c>
       <c r="P6" t="n">
-        <v>20161.04336085957</v>
+        <v>20161.04336085964</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F2" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G2" t="n">
         <v>242.928469057074</v>
@@ -26716,16 +26716,16 @@
         <v>115.1401533596864</v>
       </c>
       <c r="M2" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="N2" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="O2" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="P2" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523502</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>694.0053563773454</v>
+        <v>694.0053563773452</v>
       </c>
       <c r="F3" t="n">
         <v>694.0053563773453</v>
@@ -26796,13 +26796,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450527</v>
       </c>
       <c r="F4" t="n">
-        <v>356.589893545053</v>
+        <v>356.5898935450527</v>
       </c>
       <c r="G4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450526</v>
       </c>
       <c r="H4" t="n">
         <v>356.5898935450527</v>
@@ -26811,25 +26811,25 @@
         <v>356.5898935450527</v>
       </c>
       <c r="J4" t="n">
-        <v>784.2094129550522</v>
+        <v>784.2094129550526</v>
       </c>
       <c r="K4" t="n">
-        <v>784.2094129550525</v>
+        <v>784.2094129550526</v>
       </c>
       <c r="L4" t="n">
-        <v>784.2094129550525</v>
+        <v>784.2094129550526</v>
       </c>
       <c r="M4" t="n">
-        <v>427.6195194099983</v>
+        <v>427.6195194099994</v>
       </c>
       <c r="N4" t="n">
-        <v>427.6195194099985</v>
+        <v>427.6195194099994</v>
       </c>
       <c r="O4" t="n">
-        <v>427.6195194099983</v>
+        <v>427.6195194099992</v>
       </c>
       <c r="P4" t="n">
-        <v>427.6195194099983</v>
+        <v>427.6195194099992</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,16 +26932,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>115.1401533596864</v>
       </c>
       <c r="M2" t="n">
-        <v>104.8173346926641</v>
+        <v>104.8173346926638</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>694.0053563773454</v>
+        <v>694.0053563773452</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>356.589893545053</v>
+        <v>356.5898935450527</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.6195194099996</v>
+        <v>427.6195194099999</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>356.589893545053</v>
+        <v>356.5898935450527</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="I11" t="n">
-        <v>102.9155217242245</v>
+        <v>102.9155217242246</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>76.80762378548908</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H12" t="n">
-        <v>76.8076237854892</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>38.00095315743242</v>
+        <v>38.00095315743243</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.475382974551579</v>
+        <v>7.475382974551607</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T12" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V12" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y12" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,31 +28245,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F13" t="n">
-        <v>102.4525777442816</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H13" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>117.8149057650245</v>
       </c>
       <c r="J13" t="n">
-        <v>4.879185747056155</v>
+        <v>4.879185747056184</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28296,25 +28296,25 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.7883156973876</v>
+        <v>112.4259876766435</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="I14" t="n">
         <v>102.9155217242246</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="15">
@@ -28403,25 +28403,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>76.80762378548918</v>
       </c>
       <c r="F15" t="n">
-        <v>106.7774744420679</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H15" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>38.00095315743243</v>
@@ -28457,22 +28457,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U15" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X15" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="16">
@@ -28482,25 +28482,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="I16" t="n">
         <v>117.8149057650245</v>
@@ -28533,22 +28533,22 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T16" t="n">
-        <v>127.7883156973876</v>
+        <v>112.4259876766435</v>
       </c>
       <c r="U16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V16" t="n">
-        <v>112.4259876766448</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28655,13 +28655,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>24.12798318179534</v>
+        <v>95.48035764303998</v>
       </c>
       <c r="H18" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38.00095315743243</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U18" t="n">
         <v>225.8431737758271</v>
@@ -28709,7 +28709,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>134.5977391756701</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7394942895816</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>151.1003325314225</v>
       </c>
       <c r="I19" t="n">
-        <v>117.8149057650245</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>4.879185747056184</v>
@@ -28770,13 +28770,13 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S19" t="n">
-        <v>202.20662642754</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>222.598335043079</v>
       </c>
       <c r="U19" t="n">
-        <v>191.6743942504874</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>242.928469057074</v>
@@ -28788,7 +28788,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>65.42503468967996</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>56.920734734901</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>135.850750924965</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I21" t="n">
-        <v>38.00095315743243</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.475382974551607</v>
       </c>
       <c r="S21" t="n">
         <v>143.9556929504599</v>
@@ -28934,10 +28934,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8431737758271</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28946,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -28959,19 +28959,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7394942895816</v>
+        <v>17.35883106443924</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -29010,10 +29010,10 @@
         <v>202.20662642754</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>222.598335043079</v>
       </c>
       <c r="U22" t="n">
-        <v>242.928469057074</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>242.928469057074</v>
@@ -29022,10 +29022,10 @@
         <v>242.928469057074</v>
       </c>
       <c r="X22" t="n">
-        <v>28.06099766089906</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -29114,16 +29114,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>93.43853281132452</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>7.475382974551607</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29174,13 +29174,13 @@
         <v>225.8431737758271</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>88.94973237284333</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -29193,22 +29193,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>50.26702791854029</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H25" t="n">
         <v>151.1003325314225</v>
@@ -29241,13 +29241,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S25" t="n">
-        <v>110.2666645360411</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T25" t="n">
-        <v>222.598335043079</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>242.928469057074</v>
@@ -29256,13 +29256,13 @@
         <v>242.928469057074</v>
       </c>
       <c r="W25" t="n">
-        <v>242.928469057074</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -29460,7 +29460,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>43.34282203958111</v>
+        <v>43.34282203958105</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>115.1401533596864</v>
       </c>
       <c r="J31" t="n">
-        <v>4.879185747056184</v>
+        <v>48.22200778663725</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29709,7 +29709,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>43.34282203958099</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -29934,10 +29934,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>43.3428220395806</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>43.34282203958108</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="C35" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="D35" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="E35" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="F35" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="G35" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="H35" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="I35" t="n">
         <v>102.9155217242246</v>
@@ -30040,19 +30040,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U35" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="V35" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="W35" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="X35" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="Y35" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
     </row>
     <row r="36">
@@ -30062,25 +30062,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>88.78126626442527</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>38.00095315743243</v>
@@ -30110,25 +30110,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>7.475382974551607</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>44.30571856502181</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30144,10 +30144,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -30156,10 +30156,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>157.2264942365983</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H37" t="n">
-        <v>151.1003325314225</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>117.8149057650245</v>
@@ -30192,22 +30192,22 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="U37" t="n">
-        <v>219.9574880523506</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="W37" t="n">
-        <v>219.9574880523506</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>219.9574880523506</v>
+        <v>177.9695421836661</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="C38" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="D38" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="E38" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="F38" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="G38" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="H38" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="I38" t="n">
         <v>102.9155217242246</v>
@@ -30277,19 +30277,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U38" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="V38" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="W38" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="X38" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="Y38" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30311,13 +30311,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>95.30381519640687</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>38.00095315743243</v>
@@ -30353,22 +30353,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>219.9574880523506</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>161.3688935344632</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -30387,16 +30387,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.7394942895816</v>
       </c>
       <c r="H40" t="n">
-        <v>151.1003325314225</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>117.8149057650245</v>
@@ -30426,25 +30426,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.32547583269557</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S40" t="n">
         <v>202.20662642754</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>199.4637019736637</v>
       </c>
       <c r="V40" t="n">
-        <v>219.9574880523506</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>219.9574880523506</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>219.9574880523506</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="C41" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="D41" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="E41" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="F41" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="G41" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="H41" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="I41" t="n">
         <v>102.9155217242246</v>
@@ -30514,19 +30514,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U41" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="V41" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="W41" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="X41" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="Y41" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
     </row>
     <row r="42">
@@ -30539,10 +30539,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -30551,13 +30551,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H42" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>38.00095315743243</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.475382974551607</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>166.7431657216804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>196.4662825237991</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30618,10 +30618,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -30663,25 +30663,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>121.0220718256556</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>202.20662642754</v>
       </c>
       <c r="T43" t="n">
-        <v>219.9574880523506</v>
+        <v>126.0655084022026</v>
       </c>
       <c r="U43" t="n">
-        <v>100.9482426410359</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="V43" t="n">
-        <v>219.9574880523506</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>219.9574880523506</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="C44" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="D44" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="E44" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="F44" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="G44" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="H44" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="I44" t="n">
         <v>102.9155217242246</v>
@@ -30751,19 +30751,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U44" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="V44" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="W44" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="X44" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="Y44" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523502</v>
       </c>
     </row>
     <row r="45">
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -30791,7 +30791,7 @@
         <v>135.850750924965</v>
       </c>
       <c r="H45" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>38.00095315743243</v>
@@ -30824,25 +30824,25 @@
         <v>7.475382974551607</v>
       </c>
       <c r="S45" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>45.91664998876135</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>95.43825890341903</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -30852,13 +30852,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>11.27822866804891</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -30873,7 +30873,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>117.8149057650245</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>4.879185747056184</v>
@@ -30906,22 +30906,22 @@
         <v>202.20662642754</v>
       </c>
       <c r="T46" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="U46" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="V46" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="W46" t="n">
-        <v>219.9574880523505</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>199.0623147669576</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.789971281918974</v>
+        <v>2.789971281918973</v>
       </c>
       <c r="H11" t="n">
-        <v>28.5727933909527</v>
+        <v>28.57279339095269</v>
       </c>
       <c r="I11" t="n">
-        <v>107.5603678461814</v>
+        <v>107.5603678461813</v>
       </c>
       <c r="J11" t="n">
-        <v>236.7953250887708</v>
+        <v>236.7953250887707</v>
       </c>
       <c r="K11" t="n">
-        <v>354.894809452401</v>
+        <v>354.8948094524009</v>
       </c>
       <c r="L11" t="n">
-        <v>440.2783930714289</v>
+        <v>440.2783930714288</v>
       </c>
       <c r="M11" t="n">
-        <v>489.8945448562554</v>
+        <v>489.8945448562553</v>
       </c>
       <c r="N11" t="n">
-        <v>497.8215507610078</v>
+        <v>497.8215507610076</v>
       </c>
       <c r="O11" t="n">
-        <v>470.078773826426</v>
+        <v>470.0787738264258</v>
       </c>
       <c r="P11" t="n">
-        <v>401.2013578040512</v>
+        <v>401.2013578040511</v>
       </c>
       <c r="Q11" t="n">
-        <v>301.2855112703278</v>
+        <v>301.2855112703277</v>
       </c>
       <c r="R11" t="n">
         <v>175.2555335378429</v>
       </c>
       <c r="S11" t="n">
-        <v>63.57647058672869</v>
+        <v>63.57647058672867</v>
       </c>
       <c r="T11" t="n">
-        <v>12.21309928660032</v>
+        <v>12.21309928660031</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2231977025535179</v>
+        <v>0.2231977025535178</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.492766238245611</v>
+        <v>1.49276623824561</v>
       </c>
       <c r="H12" t="n">
-        <v>14.41697919568788</v>
+        <v>14.41697919568787</v>
       </c>
       <c r="I12" t="n">
-        <v>51.39567969398266</v>
+        <v>51.39567969398264</v>
       </c>
       <c r="J12" t="n">
         <v>141.0336734124943</v>
       </c>
       <c r="K12" t="n">
-        <v>241.0490113749503</v>
+        <v>241.0490113749502</v>
       </c>
       <c r="L12" t="n">
-        <v>324.1201430892499</v>
+        <v>324.1201430892498</v>
       </c>
       <c r="M12" t="n">
-        <v>378.2329192256532</v>
+        <v>378.2329192256531</v>
       </c>
       <c r="N12" t="n">
-        <v>388.2436191303793</v>
+        <v>388.2436191303792</v>
       </c>
       <c r="O12" t="n">
-        <v>355.1670619566213</v>
+        <v>355.1670619566211</v>
       </c>
       <c r="P12" t="n">
-        <v>285.0528793014799</v>
+        <v>285.0528793014798</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.5503008679836</v>
+        <v>190.5503008679835</v>
       </c>
       <c r="R12" t="n">
-        <v>92.68245117809155</v>
+        <v>92.68245117809153</v>
       </c>
       <c r="S12" t="n">
         <v>27.72747815337788</v>
       </c>
       <c r="T12" t="n">
-        <v>6.016895495384719</v>
+        <v>6.016895495384717</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0982083051477376</v>
+        <v>0.09820830514773757</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,16 +31911,16 @@
         <v>1.25148506887718</v>
       </c>
       <c r="H13" t="n">
-        <v>11.12683997601712</v>
+        <v>11.12683997601711</v>
       </c>
       <c r="I13" t="n">
-        <v>37.63556916223375</v>
+        <v>37.63556916223374</v>
       </c>
       <c r="J13" t="n">
-        <v>88.47999436961662</v>
+        <v>88.47999436961659</v>
       </c>
       <c r="K13" t="n">
-        <v>145.3998107295487</v>
+        <v>145.3998107295486</v>
       </c>
       <c r="L13" t="n">
         <v>186.0616983310673</v>
@@ -31929,28 +31929,28 @@
         <v>196.1759731149928</v>
       </c>
       <c r="N13" t="n">
-        <v>191.5113469491781</v>
+        <v>191.511346949178</v>
       </c>
       <c r="O13" t="n">
-        <v>176.8917259172946</v>
+        <v>176.8917259172945</v>
       </c>
       <c r="P13" t="n">
-        <v>151.3614305122</v>
+        <v>151.3614305121999</v>
       </c>
       <c r="Q13" t="n">
-        <v>104.7948088129792</v>
+        <v>104.7948088129791</v>
       </c>
       <c r="R13" t="n">
-        <v>56.27131955151392</v>
+        <v>56.2713195515139</v>
       </c>
       <c r="S13" t="n">
         <v>21.8099716094323</v>
       </c>
       <c r="T13" t="n">
-        <v>5.347254385202495</v>
+        <v>5.347254385202493</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06826282193875535</v>
+        <v>0.06826282193875534</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.74942056208448</v>
+        <v>55.7494205620844</v>
       </c>
       <c r="K11" t="n">
-        <v>134.8049584074205</v>
+        <v>134.8049584074204</v>
       </c>
       <c r="L11" t="n">
-        <v>204.5119781014417</v>
+        <v>204.5119781014415</v>
       </c>
       <c r="M11" t="n">
-        <v>259.5483116289827</v>
+        <v>259.5483116289826</v>
       </c>
       <c r="N11" t="n">
-        <v>268.4084871644168</v>
+        <v>268.4084871644167</v>
       </c>
       <c r="O11" t="n">
-        <v>239.9805624047392</v>
+        <v>239.9805624047391</v>
       </c>
       <c r="P11" t="n">
-        <v>169.9683620487817</v>
+        <v>169.9683620487816</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.97982139587836</v>
+        <v>78.97982139587825</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.19604674582763</v>
+        <v>14.1960467458276</v>
       </c>
       <c r="K12" t="n">
-        <v>103.2075724005913</v>
+        <v>103.2075724005912</v>
       </c>
       <c r="L12" t="n">
-        <v>185.5657633093757</v>
+        <v>185.5657633093756</v>
       </c>
       <c r="M12" t="n">
-        <v>236.0988853036349</v>
+        <v>293.8437199967395</v>
       </c>
       <c r="N12" t="n">
-        <v>256.9019070470461</v>
+        <v>256.9019070470458</v>
       </c>
       <c r="O12" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450527</v>
       </c>
       <c r="P12" t="n">
-        <v>151.0784718871496</v>
+        <v>151.0784718871495</v>
       </c>
       <c r="Q12" t="n">
-        <v>108.3133614750667</v>
+        <v>50.56852678196202</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>123.1303189036659</v>
+        <v>123.1303189036658</v>
       </c>
       <c r="L13" t="n">
-        <v>213.6517235913835</v>
+        <v>213.6517235913834</v>
       </c>
       <c r="M13" t="n">
         <v>235.7598500768334</v>
       </c>
       <c r="N13" t="n">
-        <v>235.6435193284067</v>
+        <v>235.6435193284066</v>
       </c>
       <c r="O13" t="n">
         <v>201.4768538313342</v>
       </c>
       <c r="P13" t="n">
-        <v>148.6399897770935</v>
+        <v>148.6399897770934</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.63276556128477</v>
+        <v>18.63276556128473</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>14.19604674582763</v>
       </c>
       <c r="K15" t="n">
-        <v>103.2075724005912</v>
+        <v>304.9714831265716</v>
       </c>
       <c r="L15" t="n">
-        <v>356.589893545053</v>
+        <v>185.5657633093757</v>
       </c>
       <c r="M15" t="n">
         <v>236.0988853036348</v>
@@ -35738,7 +35738,7 @@
         <v>256.9019070470459</v>
       </c>
       <c r="O15" t="n">
-        <v>243.3105980024808</v>
+        <v>212.5708175121767</v>
       </c>
       <c r="P15" t="n">
         <v>151.0784718871496</v>
@@ -35966,10 +35966,10 @@
         <v>103.2075724005912</v>
       </c>
       <c r="L18" t="n">
-        <v>185.5657633093756</v>
+        <v>356.5898935450526</v>
       </c>
       <c r="M18" t="n">
-        <v>236.0988853036347</v>
+        <v>266.8386657939383</v>
       </c>
       <c r="N18" t="n">
         <v>256.9019070470458</v>
@@ -35981,7 +35981,7 @@
         <v>151.0784718871495</v>
       </c>
       <c r="Q18" t="n">
-        <v>252.3324375079437</v>
+        <v>50.56852678196202</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>204.5119781014415</v>
       </c>
       <c r="M20" t="n">
-        <v>259.5483116289826</v>
+        <v>259.5483116289821</v>
       </c>
       <c r="N20" t="n">
         <v>268.4084871644167</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>14.1960467458276</v>
+        <v>95.46894923039051</v>
       </c>
       <c r="K21" t="n">
         <v>103.2075724005912</v>
@@ -36206,16 +36206,16 @@
         <v>185.5657633093756</v>
       </c>
       <c r="M21" t="n">
-        <v>236.0988853036347</v>
+        <v>356.5898935450527</v>
       </c>
       <c r="N21" t="n">
         <v>256.9019070470458</v>
       </c>
       <c r="O21" t="n">
-        <v>356.5898935450527</v>
+        <v>212.5708175121767</v>
       </c>
       <c r="P21" t="n">
-        <v>208.8233065802544</v>
+        <v>151.0784718871495</v>
       </c>
       <c r="Q21" t="n">
         <v>50.56852678196202</v>
@@ -36358,7 +36358,7 @@
         <v>55.7494205620844</v>
       </c>
       <c r="K23" t="n">
-        <v>134.8049584074204</v>
+        <v>134.8049584074199</v>
       </c>
       <c r="L23" t="n">
         <v>204.5119781014415</v>
@@ -36440,19 +36440,19 @@
         <v>103.2075724005912</v>
       </c>
       <c r="L24" t="n">
-        <v>185.5657633093756</v>
+        <v>266.8386657939385</v>
       </c>
       <c r="M24" t="n">
-        <v>236.0988853036347</v>
+        <v>356.5898935450527</v>
       </c>
       <c r="N24" t="n">
         <v>256.9019070470458</v>
       </c>
       <c r="O24" t="n">
-        <v>356.5898935450527</v>
+        <v>212.5708175121767</v>
       </c>
       <c r="P24" t="n">
-        <v>208.8233065802544</v>
+        <v>151.0784718871495</v>
       </c>
       <c r="Q24" t="n">
         <v>50.56852678196202</v>
@@ -36595,19 +36595,19 @@
         <v>55.7494205620844</v>
       </c>
       <c r="K26" t="n">
-        <v>458.9503709785851</v>
+        <v>134.8049584074204</v>
       </c>
       <c r="L26" t="n">
         <v>622.1731926518919</v>
       </c>
       <c r="M26" t="n">
-        <v>259.5483116289826</v>
+        <v>709.0618451218151</v>
       </c>
       <c r="N26" t="n">
-        <v>279.5020856521752</v>
+        <v>268.4084871644167</v>
       </c>
       <c r="O26" t="n">
-        <v>620.7807436674844</v>
+        <v>531.8926368302698</v>
       </c>
       <c r="P26" t="n">
         <v>491.7670702202642</v>
@@ -36616,7 +36616,7 @@
         <v>291.2948120557829</v>
       </c>
       <c r="R26" t="n">
-        <v>25.38641559669318</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>140.2870820862364</v>
+        <v>14.1960467458276</v>
       </c>
       <c r="K27" t="n">
-        <v>103.2075724005912</v>
+        <v>367.6728094131698</v>
       </c>
       <c r="L27" t="n">
-        <v>185.5657633093756</v>
+        <v>345.6473075677047</v>
       </c>
       <c r="M27" t="n">
-        <v>236.0988853036347</v>
+        <v>701.8039490536346</v>
       </c>
       <c r="N27" t="n">
         <v>736.2442813905993</v>
       </c>
       <c r="O27" t="n">
-        <v>448.1915708168891</v>
+        <v>212.5708175121767</v>
       </c>
       <c r="P27" t="n">
-        <v>469.5412405270867</v>
+        <v>151.0784718871495</v>
       </c>
       <c r="Q27" t="n">
-        <v>260.6458145178111</v>
+        <v>50.56852678196202</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>55.7494205620844</v>
+        <v>131.7574745268659</v>
       </c>
       <c r="K29" t="n">
-        <v>134.8049584074204</v>
+        <v>458.9503709785851</v>
       </c>
       <c r="L29" t="n">
-        <v>533.2850858146769</v>
+        <v>204.5119781014415</v>
       </c>
       <c r="M29" t="n">
         <v>709.0618451218151</v>
       </c>
       <c r="N29" t="n">
-        <v>268.4084871644167</v>
+        <v>705.7554115764009</v>
       </c>
       <c r="O29" t="n">
         <v>620.7807436674844</v>
       </c>
       <c r="P29" t="n">
-        <v>491.7670702202642</v>
+        <v>169.9683620487816</v>
       </c>
       <c r="Q29" t="n">
-        <v>291.2948120557829</v>
+        <v>78.97982139587825</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>25.38641559669318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>140.2870820862364</v>
+        <v>14.1960467458276</v>
       </c>
       <c r="K30" t="n">
-        <v>367.6728094131698</v>
+        <v>156.9140083680398</v>
       </c>
       <c r="L30" t="n">
-        <v>185.5657633093756</v>
+        <v>556.4061086128347</v>
       </c>
       <c r="M30" t="n">
         <v>701.8039490536346</v>
       </c>
       <c r="N30" t="n">
-        <v>256.9019070470458</v>
+        <v>736.2442813905993</v>
       </c>
       <c r="O30" t="n">
-        <v>515.8264130378013</v>
+        <v>212.5708175121767</v>
       </c>
       <c r="P30" t="n">
         <v>151.0784718871495</v>
       </c>
       <c r="Q30" t="n">
-        <v>260.6458145178111</v>
+        <v>50.56852678196202</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>43.34282203958107</v>
       </c>
       <c r="K31" t="n">
         <v>123.1303189036658</v>
@@ -37005,7 +37005,7 @@
         <v>201.4768538313342</v>
       </c>
       <c r="P31" t="n">
-        <v>191.9828118166744</v>
+        <v>148.6399897770934</v>
       </c>
       <c r="Q31" t="n">
         <v>18.63276556128473</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>224.8460357341582</v>
+        <v>55.7494205620844</v>
       </c>
       <c r="K32" t="n">
-        <v>134.8049584074204</v>
+        <v>458.9503709785851</v>
       </c>
       <c r="L32" t="n">
         <v>622.1731926518919</v>
       </c>
       <c r="M32" t="n">
-        <v>709.0618451218151</v>
+        <v>259.5483116289826</v>
       </c>
       <c r="N32" t="n">
-        <v>268.4084871644167</v>
+        <v>705.7554115764009</v>
       </c>
       <c r="O32" t="n">
         <v>620.7807436674844</v>
       </c>
       <c r="P32" t="n">
-        <v>208.3959326142824</v>
+        <v>169.9683620487816</v>
       </c>
       <c r="Q32" t="n">
-        <v>291.2948120557829</v>
+        <v>212.2266098997351</v>
       </c>
       <c r="R32" t="n">
-        <v>25.38641559669318</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>14.1960467458276</v>
+        <v>140.2870820862364</v>
       </c>
       <c r="K33" t="n">
-        <v>103.2075724005912</v>
+        <v>367.6728094131698</v>
       </c>
       <c r="L33" t="n">
-        <v>185.5657633093756</v>
+        <v>556.4061086128347</v>
       </c>
       <c r="M33" t="n">
-        <v>522.4111233119636</v>
+        <v>364.9541126680958</v>
       </c>
       <c r="N33" t="n">
         <v>736.2442813905993</v>
       </c>
       <c r="O33" t="n">
-        <v>606.4331367889063</v>
+        <v>212.5708175121767</v>
       </c>
       <c r="P33" t="n">
         <v>151.0784718871495</v>
       </c>
       <c r="Q33" t="n">
-        <v>260.6458145178111</v>
+        <v>50.56852678196202</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,10 +37230,10 @@
         <v>123.1303189036658</v>
       </c>
       <c r="L34" t="n">
-        <v>256.994545630964</v>
+        <v>213.6517235913834</v>
       </c>
       <c r="M34" t="n">
-        <v>235.7598500768334</v>
+        <v>279.1026721164145</v>
       </c>
       <c r="N34" t="n">
         <v>235.6435193284066</v>
@@ -37312,22 +37312,22 @@
         <v>204.5119781014415</v>
       </c>
       <c r="M35" t="n">
-        <v>259.5483116289826</v>
+        <v>381.585898969855</v>
       </c>
       <c r="N35" t="n">
-        <v>268.4084871644167</v>
+        <v>427.6195194099994</v>
       </c>
       <c r="O35" t="n">
-        <v>283.5277757345921</v>
+        <v>239.9805624047391</v>
       </c>
       <c r="P35" t="n">
         <v>169.9683620487816</v>
       </c>
       <c r="Q35" t="n">
-        <v>291.2948120557829</v>
+        <v>78.97982139587825</v>
       </c>
       <c r="R35" t="n">
-        <v>25.38641559669318</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>14.1960467458276</v>
+        <v>140.2870820862364</v>
       </c>
       <c r="K36" t="n">
         <v>103.2075724005912</v>
@@ -37391,19 +37391,19 @@
         <v>185.5657633093756</v>
       </c>
       <c r="M36" t="n">
-        <v>236.0988853036347</v>
+        <v>382.9430925398132</v>
       </c>
       <c r="N36" t="n">
         <v>256.9019070470458</v>
       </c>
       <c r="O36" t="n">
-        <v>419.0423003017601</v>
+        <v>212.5708175121767</v>
       </c>
       <c r="P36" t="n">
-        <v>427.6195194099983</v>
+        <v>151.0784718871495</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.56852678196202</v>
+        <v>260.6458145178111</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>55.7494205620844</v>
       </c>
       <c r="K38" t="n">
-        <v>158.4024206326552</v>
+        <v>416.0535779938755</v>
       </c>
       <c r="L38" t="n">
         <v>204.5119781014415</v>
@@ -37558,7 +37558,7 @@
         <v>239.9805624047391</v>
       </c>
       <c r="P38" t="n">
-        <v>427.6195194099985</v>
+        <v>169.9683620487816</v>
       </c>
       <c r="Q38" t="n">
         <v>78.97982139587825</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>140.2870820862364</v>
+        <v>14.1960467458276</v>
       </c>
       <c r="K39" t="n">
         <v>103.2075724005912</v>
       </c>
       <c r="L39" t="n">
-        <v>427.6195194099985</v>
+        <v>427.6195194099994</v>
       </c>
       <c r="M39" t="n">
-        <v>236.0988853036347</v>
+        <v>427.6195194099994</v>
       </c>
       <c r="N39" t="n">
-        <v>256.9019070470458</v>
+        <v>306.3400471524939</v>
       </c>
       <c r="O39" t="n">
         <v>212.5708175121767</v>
@@ -37640,7 +37640,7 @@
         <v>151.0784718871495</v>
       </c>
       <c r="Q39" t="n">
-        <v>165.4362656533632</v>
+        <v>50.56852678196202</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>55.7494205620844</v>
+        <v>224.8460357341582</v>
       </c>
       <c r="K41" t="n">
         <v>134.8049584074204</v>
@@ -37786,10 +37786,10 @@
         <v>204.5119781014415</v>
       </c>
       <c r="M41" t="n">
-        <v>427.6195194099983</v>
+        <v>259.5483116289826</v>
       </c>
       <c r="N41" t="n">
-        <v>268.4084871644167</v>
+        <v>380.5604915787973</v>
       </c>
       <c r="O41" t="n">
         <v>239.9805624047391</v>
@@ -37798,7 +37798,7 @@
         <v>169.9683620487816</v>
       </c>
       <c r="Q41" t="n">
-        <v>192.1572332013135</v>
+        <v>78.97982139587825</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>140.2870820862364</v>
+        <v>111.4422627974875</v>
       </c>
       <c r="K42" t="n">
         <v>103.2075724005912</v>
@@ -37868,16 +37868,16 @@
         <v>236.0988853036347</v>
       </c>
       <c r="N42" t="n">
-        <v>256.9019070470458</v>
+        <v>427.6195194099992</v>
       </c>
       <c r="O42" t="n">
-        <v>212.5708175121767</v>
+        <v>427.6195194099992</v>
       </c>
       <c r="P42" t="n">
-        <v>427.6195194099983</v>
+        <v>151.0784718871495</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.9489742311366</v>
+        <v>50.56852678196202</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>55.7494205620844</v>
       </c>
       <c r="K44" t="n">
-        <v>416.0535779938712</v>
+        <v>134.8049584074204</v>
       </c>
       <c r="L44" t="n">
-        <v>204.5119781014415</v>
+        <v>427.6195194099992</v>
       </c>
       <c r="M44" t="n">
         <v>259.5483116289826</v>
@@ -38035,7 +38035,7 @@
         <v>169.9683620487816</v>
       </c>
       <c r="Q44" t="n">
-        <v>78.97982139587825</v>
+        <v>137.120899673775</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>185.5657633093756</v>
       </c>
       <c r="M45" t="n">
-        <v>427.6195194099983</v>
+        <v>236.0988853036347</v>
       </c>
       <c r="N45" t="n">
-        <v>427.6195194099983</v>
+        <v>256.9019070470458</v>
       </c>
       <c r="O45" t="n">
-        <v>212.5708175121767</v>
+        <v>427.6195194099992</v>
       </c>
       <c r="P45" t="n">
-        <v>151.0784718871495</v>
+        <v>419.0423003017629</v>
       </c>
       <c r="Q45" t="n">
-        <v>171.3428106250782</v>
+        <v>50.56852678196202</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
